--- a/raw_data/20200818_saline/20200818_Sensor3_Test_89.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_89.xlsx
@@ -1,840 +1,1256 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1BFBB0-2151-4367-89C2-1A77370E2795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>79760.837290</v>
+        <v>79760.837289999996</v>
       </c>
       <c r="B2" s="1">
-        <v>22.155788</v>
+        <v>22.155788000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1151.510000</v>
+        <v>1151.51</v>
       </c>
       <c r="D2" s="1">
-        <v>-257.834000</v>
+        <v>-257.834</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>79770.872846</v>
+        <v>79770.872845999998</v>
       </c>
       <c r="G2" s="1">
         <v>22.158576</v>
       </c>
       <c r="H2" s="1">
-        <v>1174.030000</v>
+        <v>1174.03</v>
       </c>
       <c r="I2" s="1">
-        <v>-216.669000</v>
+        <v>-216.66900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>79781.684174</v>
+        <v>79781.684173999995</v>
       </c>
       <c r="L2" s="1">
         <v>22.161579</v>
       </c>
       <c r="M2" s="1">
-        <v>1202.130000</v>
+        <v>1202.1300000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.600000</v>
+        <v>-151.6</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>79792.210240</v>
+        <v>79792.21024</v>
       </c>
       <c r="Q2" s="1">
         <v>22.164503</v>
       </c>
       <c r="R2" s="1">
-        <v>1210.310000</v>
+        <v>1210.31</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.706000</v>
+        <v>-129.70599999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>79802.777507</v>
+        <v>79802.777507000006</v>
       </c>
       <c r="V2" s="1">
-        <v>22.167438</v>
+        <v>22.167438000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1218.070000</v>
+        <v>1218.07</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.844000</v>
+        <v>-108.84399999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>79812.913254</v>
+        <v>79812.913253999999</v>
       </c>
       <c r="AA2" s="1">
         <v>22.170254</v>
       </c>
       <c r="AB2" s="1">
-        <v>1225.830000</v>
+        <v>1225.83</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.528100</v>
+        <v>-91.528099999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>79823.513288</v>
+        <v>79823.513288000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.173198</v>
+        <v>22.173197999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.965200</v>
+        <v>-86.965199999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>79833.950569</v>
+        <v>79833.950568999993</v>
       </c>
       <c r="AK2" s="1">
-        <v>22.176097</v>
+        <v>22.176096999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1237.880000</v>
+        <v>1237.8800000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.181900</v>
+        <v>-90.181899999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>79844.819931</v>
+        <v>79844.819931000005</v>
       </c>
       <c r="AP2" s="1">
-        <v>22.179117</v>
+        <v>22.179117000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1245.970000</v>
+        <v>1245.97</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.988000</v>
+        <v>-101.988</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>79855.871261</v>
+        <v>79855.871260999993</v>
       </c>
       <c r="AU2" s="1">
-        <v>22.182186</v>
+        <v>22.182186000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1256.040000</v>
+        <v>1256.04</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.245000</v>
+        <v>-121.245</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>79867.038189</v>
+        <v>79867.038188999999</v>
       </c>
       <c r="AZ2" s="1">
         <v>22.185288</v>
       </c>
       <c r="BA2" s="1">
-        <v>1264.500000</v>
+        <v>1264.5</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.654000</v>
+        <v>-138.654</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>79878.028217</v>
+        <v>79878.028216999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>22.188341</v>
+        <v>22.188341000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1304.870000</v>
+        <v>1304.8699999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.507000</v>
+        <v>-220.50700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>79889.035760</v>
+        <v>79889.035759999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>22.191399</v>
+        <v>22.191399000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1374.880000</v>
+        <v>1374.88</v>
       </c>
       <c r="BL2" s="1">
-        <v>-356.674000</v>
+        <v>-356.67399999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>79900.780034</v>
+        <v>79900.780033999996</v>
       </c>
       <c r="BO2" s="1">
         <v>22.194661</v>
       </c>
       <c r="BP2" s="1">
-        <v>1489.960000</v>
+        <v>1489.96</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-577.906000</v>
+        <v>-577.90599999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>79911.633990</v>
+        <v>79911.633990000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>22.197676</v>
+        <v>22.197676000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1622.680000</v>
+        <v>1622.68</v>
       </c>
       <c r="BV2" s="1">
-        <v>-826.472000</v>
+        <v>-826.47199999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>79922.367422</v>
+        <v>79922.367421999996</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.200658</v>
+        <v>22.200658000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1775.720000</v>
+        <v>1775.72</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1097.130000</v>
+        <v>-1097.1300000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>79933.375621</v>
+        <v>79933.375620999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>22.203715</v>
+        <v>22.203714999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2192.280000</v>
+        <v>2192.2800000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1748.840000</v>
+        <v>-1748.84</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>79761.257438</v>
+        <v>79761.257438000001</v>
       </c>
       <c r="B3" s="1">
-        <v>22.155905</v>
+        <v>22.155905000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1151.490000</v>
+        <v>1151.49</v>
       </c>
       <c r="D3" s="1">
-        <v>-257.576000</v>
+        <v>-257.57600000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>79771.601008</v>
+        <v>79771.601007999998</v>
       </c>
       <c r="G3" s="1">
-        <v>22.158778</v>
+        <v>22.158778000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>1173.500000</v>
+        <v>1173.5</v>
       </c>
       <c r="I3" s="1">
-        <v>-217.211000</v>
+        <v>-217.21100000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>79782.090403</v>
+        <v>79782.090402999995</v>
       </c>
       <c r="L3" s="1">
-        <v>22.161692</v>
+        <v>22.161691999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1202.130000</v>
+        <v>1202.1300000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.880000</v>
+        <v>-151.88</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>79792.590672</v>
+        <v>79792.590672000006</v>
       </c>
       <c r="Q3" s="1">
-        <v>22.164609</v>
+        <v>22.164608999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1210.290000</v>
+        <v>1210.29</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.687000</v>
+        <v>-129.68700000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>79803.144546</v>
+        <v>79803.144545999996</v>
       </c>
       <c r="V3" s="1">
-        <v>22.167540</v>
+        <v>22.167539999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1217.870000</v>
+        <v>1217.8699999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.835000</v>
+        <v>-108.83499999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>79813.290709</v>
+        <v>79813.290708999994</v>
       </c>
       <c r="AA3" s="1">
-        <v>22.170359</v>
+        <v>22.170359000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1225.800000</v>
+        <v>1225.8</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.532700</v>
+        <v>-91.532700000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>79824.234965</v>
+        <v>79824.234964999996</v>
       </c>
       <c r="AF3" s="1">
         <v>22.173399</v>
       </c>
       <c r="AG3" s="1">
-        <v>1230.640000</v>
+        <v>1230.6400000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.939700</v>
+        <v>-86.939700000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>79834.686168</v>
@@ -843,118 +1259,118 @@
         <v>22.176302</v>
       </c>
       <c r="AL3" s="1">
-        <v>1237.870000</v>
+        <v>1237.8699999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.204900</v>
+        <v>-90.204899999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>79845.220202</v>
+        <v>79845.220201999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>22.179228</v>
+        <v>22.179227999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1245.950000</v>
+        <v>1245.95</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.997000</v>
+        <v>-101.997</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>79856.238299</v>
+        <v>79856.238299000004</v>
       </c>
       <c r="AU3" s="1">
         <v>22.182288</v>
       </c>
       <c r="AV3" s="1">
-        <v>1256.020000</v>
+        <v>1256.02</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.237000</v>
+        <v>-121.23699999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>79867.425072</v>
+        <v>79867.425071999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>22.185396</v>
+        <v>22.185396000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1264.510000</v>
+        <v>1264.51</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.640000</v>
+        <v>-138.63999999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>79878.712527</v>
+        <v>79878.712526999996</v>
       </c>
       <c r="BE3" s="1">
-        <v>22.188531</v>
+        <v>22.188531000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1304.900000</v>
+        <v>1304.9000000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.516000</v>
+        <v>-220.51599999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>79889.754464</v>
+        <v>79889.754463999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>22.191598</v>
+        <v>22.191597999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1374.890000</v>
+        <v>1374.89</v>
       </c>
       <c r="BL3" s="1">
-        <v>-356.689000</v>
+        <v>-356.68900000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>79900.890144</v>
+        <v>79900.890144000005</v>
       </c>
       <c r="BO3" s="1">
         <v>22.194692</v>
       </c>
       <c r="BP3" s="1">
-        <v>1490.030000</v>
+        <v>1490.03</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-577.893000</v>
+        <v>-577.89300000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>79912.082898</v>
+        <v>79912.082897999993</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.197801</v>
+        <v>22.197800999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1622.660000</v>
+        <v>1622.66</v>
       </c>
       <c r="BV3" s="1">
-        <v>-826.558000</v>
+        <v>-826.55799999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>79922.852004</v>
@@ -963,1949 +1379,1949 @@
         <v>22.200792</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1775.730000</v>
+        <v>1775.73</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1097.140000</v>
+        <v>-1097.1400000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>79933.968341</v>
       </c>
       <c r="CD3" s="1">
-        <v>22.203880</v>
+        <v>22.203880000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>2192.580000</v>
+        <v>2192.58</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1751.350000</v>
+        <v>-1751.35</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>79761.536649</v>
+        <v>79761.536649000001</v>
       </c>
       <c r="B4" s="1">
-        <v>22.155982</v>
+        <v>22.155982000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>1151.650000</v>
+        <v>1151.6500000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-257.426000</v>
+        <v>-257.42599999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>79771.946188</v>
+        <v>79771.946188000002</v>
       </c>
       <c r="G4" s="1">
-        <v>22.158874</v>
+        <v>22.158874000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1173.170000</v>
+        <v>1173.17</v>
       </c>
       <c r="I4" s="1">
-        <v>-217.476000</v>
+        <v>-217.476</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>79782.437068</v>
+        <v>79782.437067999999</v>
       </c>
       <c r="L4" s="1">
-        <v>22.161788</v>
+        <v>22.161788000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1202.050000</v>
+        <v>1202.05</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.782000</v>
+        <v>-151.78200000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>79792.942864</v>
+        <v>79792.942863999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>22.164706</v>
+        <v>22.164705999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1210.270000</v>
+        <v>1210.27</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.625000</v>
+        <v>-129.625</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>79803.486785</v>
+        <v>79803.486785000001</v>
       </c>
       <c r="V4" s="1">
-        <v>22.167635</v>
+        <v>22.167635000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1217.870000</v>
+        <v>1217.8699999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.595000</v>
+        <v>-108.595</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>79813.989591</v>
+        <v>79813.989591000005</v>
       </c>
       <c r="AA4" s="1">
-        <v>22.170553</v>
+        <v>22.170553000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1225.820000</v>
+        <v>1225.82</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.534100</v>
+        <v>-91.534099999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>79824.579157</v>
       </c>
       <c r="AF4" s="1">
-        <v>22.173494</v>
+        <v>22.173494000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.954500</v>
+        <v>-86.954499999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>79835.036311</v>
+        <v>79835.036311000003</v>
       </c>
       <c r="AK4" s="1">
         <v>22.176399</v>
       </c>
       <c r="AL4" s="1">
-        <v>1237.890000</v>
+        <v>1237.8900000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.198200</v>
+        <v>-90.1982</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>79845.599113</v>
+        <v>79845.599113000004</v>
       </c>
       <c r="AP4" s="1">
         <v>22.179333</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1245.960000</v>
+        <v>1245.96</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.025000</v>
+        <v>-102.02500000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>79856.914843</v>
+        <v>79856.914843000006</v>
       </c>
       <c r="AU4" s="1">
-        <v>22.182476</v>
+        <v>22.182476000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1256.030000</v>
+        <v>1256.03</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.247000</v>
+        <v>-121.247</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>79868.103135</v>
+        <v>79868.103134999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.185584</v>
+        <v>22.185583999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1264.530000</v>
+        <v>1264.53</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.657000</v>
+        <v>-138.65700000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>79879.127181</v>
+        <v>79879.127181000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>22.188646</v>
+        <v>22.188645999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1304.850000</v>
+        <v>1304.8499999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.505000</v>
+        <v>-220.505</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>79890.227151</v>
+        <v>79890.227150999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>22.191730</v>
+        <v>22.19173</v>
       </c>
       <c r="BK4" s="1">
-        <v>1374.940000</v>
+        <v>1374.94</v>
       </c>
       <c r="BL4" s="1">
-        <v>-356.688000</v>
+        <v>-356.68799999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>79901.311281</v>
+        <v>79901.311281000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.194809</v>
+        <v>22.194808999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1489.960000</v>
+        <v>1489.96</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-577.959000</v>
+        <v>-577.95899999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>79912.514913</v>
+        <v>79912.514913000006</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.197921</v>
+        <v>22.197921000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1622.680000</v>
+        <v>1622.68</v>
       </c>
       <c r="BV4" s="1">
-        <v>-826.643000</v>
+        <v>-826.64300000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>79923.298403</v>
+        <v>79923.298402999993</v>
       </c>
       <c r="BY4" s="1">
-        <v>22.200916</v>
+        <v>22.200915999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1775.530000</v>
+        <v>1775.53</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1097.020000</v>
+        <v>-1097.02</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>79934.508484</v>
+        <v>79934.508484000005</v>
       </c>
       <c r="CD4" s="1">
-        <v>22.204030</v>
+        <v>22.204029999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2193.190000</v>
+        <v>2193.19</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1748.470000</v>
+        <v>-1748.47</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>79761.878888</v>
+        <v>79761.878888000007</v>
       </c>
       <c r="B5" s="1">
         <v>22.156077</v>
       </c>
       <c r="C5" s="1">
-        <v>1151.380000</v>
+        <v>1151.3800000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-257.720000</v>
+        <v>-257.72000000000003</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>79772.294907</v>
+        <v>79772.294907000003</v>
       </c>
       <c r="G5" s="1">
-        <v>22.158971</v>
+        <v>22.158971000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1172.800000</v>
+        <v>1172.8</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.500000</v>
+        <v>-216.5</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>79782.781789</v>
+        <v>79782.781789000001</v>
       </c>
       <c r="L5" s="1">
-        <v>22.161884</v>
+        <v>22.161884000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1202.250000</v>
+        <v>1202.25</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.573000</v>
+        <v>-151.57300000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>79793.637726</v>
+        <v>79793.637726000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>22.164899</v>
+        <v>22.164898999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1210.390000</v>
+        <v>1210.3900000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.626000</v>
+        <v>-129.626</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>79804.173746</v>
       </c>
       <c r="V5" s="1">
-        <v>22.167826</v>
+        <v>22.167826000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1217.990000</v>
+        <v>1217.99</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.716000</v>
+        <v>-108.71599999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>79814.335779</v>
+        <v>79814.335779000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.170649</v>
+        <v>22.170649000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1225.730000</v>
+        <v>1225.73</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.552900</v>
+        <v>-91.552899999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>79824.921926</v>
+        <v>79824.921925999995</v>
       </c>
       <c r="AF5" s="1">
         <v>22.173589</v>
       </c>
       <c r="AG5" s="1">
-        <v>1230.660000</v>
+        <v>1230.6600000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.961400</v>
+        <v>-86.961399999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>79835.382519</v>
+        <v>79835.382519000006</v>
       </c>
       <c r="AK5" s="1">
-        <v>22.176495</v>
+        <v>22.176494999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1237.860000</v>
+        <v>1237.8599999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.200900</v>
+        <v>-90.200900000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>79846.273177</v>
+        <v>79846.273176999995</v>
       </c>
       <c r="AP5" s="1">
-        <v>22.179520</v>
+        <v>22.17952</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1245.970000</v>
+        <v>1245.97</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.015000</v>
+        <v>-102.015</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>79857.365738</v>
+        <v>79857.365737999993</v>
       </c>
       <c r="AU5" s="1">
-        <v>22.182602</v>
+        <v>22.182601999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.259000</v>
+        <v>-121.259</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>79868.531148</v>
+        <v>79868.531147999995</v>
       </c>
       <c r="AZ5" s="1">
         <v>22.185703</v>
       </c>
       <c r="BA5" s="1">
-        <v>1264.520000</v>
+        <v>1264.52</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.664000</v>
+        <v>-138.66399999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>79879.515053</v>
+        <v>79879.515052999996</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.188754</v>
+        <v>22.188753999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1304.870000</v>
+        <v>1304.8699999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.534000</v>
+        <v>-220.53399999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>79890.599646</v>
+        <v>79890.599646000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>22.191833</v>
+        <v>22.191832999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1374.890000</v>
+        <v>1374.89</v>
       </c>
       <c r="BL5" s="1">
-        <v>-356.698000</v>
+        <v>-356.69799999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>79901.706592</v>
+        <v>79901.706592000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>22.194918</v>
+        <v>22.194918000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1490.000000</v>
+        <v>1490</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-577.945000</v>
+        <v>-577.94500000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>79912.950369</v>
+        <v>79912.950368999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>22.198042</v>
+        <v>22.198042000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1622.650000</v>
+        <v>1622.65</v>
       </c>
       <c r="BV5" s="1">
-        <v>-826.568000</v>
+        <v>-826.56799999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>79923.772082</v>
+        <v>79923.772081999996</v>
       </c>
       <c r="BY5" s="1">
         <v>22.201048</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1775.560000</v>
+        <v>1775.56</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1097.160000</v>
+        <v>-1097.1600000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>79935.050611</v>
+        <v>79935.050610999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>22.204181</v>
+        <v>22.204180999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>2191.360000</v>
+        <v>2191.36</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1750.520000</v>
+        <v>-1750.52</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>79762.218152</v>
+        <v>79762.218152000001</v>
       </c>
       <c r="B6" s="1">
-        <v>22.156172</v>
+        <v>22.156172000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>1151.750000</v>
+        <v>1151.75</v>
       </c>
       <c r="D6" s="1">
-        <v>-257.557000</v>
+        <v>-257.55700000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>79772.988780</v>
+        <v>79772.98878</v>
       </c>
       <c r="G6" s="1">
-        <v>22.159164</v>
+        <v>22.159164000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1173.170000</v>
+        <v>1173.17</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.228000</v>
+        <v>-217.22800000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>79783.474700</v>
+        <v>79783.474700000006</v>
       </c>
       <c r="L6" s="1">
-        <v>22.162076</v>
+        <v>22.162075999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1202.030000</v>
+        <v>1202.03</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.474000</v>
+        <v>-151.47399999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>79793.985422</v>
+        <v>79793.985421999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>22.164996</v>
+        <v>22.164995999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1210.370000</v>
+        <v>1210.3699999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.647000</v>
+        <v>-129.64699999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>79804.520981</v>
+        <v>79804.520980999994</v>
       </c>
       <c r="V6" s="1">
-        <v>22.167922</v>
+        <v>22.167922000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1217.960000</v>
+        <v>1217.96</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.755000</v>
+        <v>-108.755</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>79814.684964</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.170746</v>
+        <v>22.170746000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1225.860000</v>
+        <v>1225.8599999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.510900</v>
+        <v>-91.510900000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>79825.584548</v>
+        <v>79825.584547999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.173773</v>
+        <v>22.173773000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.911800</v>
+        <v>-86.911799999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>79836.048150</v>
+        <v>79836.048150000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>22.176680</v>
+        <v>22.176680000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1237.900000</v>
+        <v>1237.9000000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.164200</v>
+        <v>-90.164199999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>79846.680392</v>
+        <v>79846.680391999995</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.179633</v>
+        <v>22.179632999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1245.970000</v>
+        <v>1245.97</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.991000</v>
+        <v>-101.991</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>79857.729963</v>
+        <v>79857.729963000005</v>
       </c>
       <c r="AU6" s="1">
         <v>22.182703</v>
       </c>
       <c r="AV6" s="1">
-        <v>1256.020000</v>
+        <v>1256.02</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.239000</v>
+        <v>-121.239</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>79868.910090</v>
+        <v>79868.910090000005</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.185808</v>
+        <v>22.185808000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1264.510000</v>
+        <v>1264.51</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.661000</v>
+        <v>-138.661</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>79879.875150</v>
+        <v>79879.875150000007</v>
       </c>
       <c r="BE6" s="1">
-        <v>22.188854</v>
+        <v>22.188853999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1304.880000</v>
+        <v>1304.8800000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.513000</v>
+        <v>-220.51300000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>79891.019266</v>
+        <v>79891.019266000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>22.191950</v>
+        <v>22.191949999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1374.890000</v>
+        <v>1374.89</v>
       </c>
       <c r="BL6" s="1">
-        <v>-356.709000</v>
+        <v>-356.709</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>79902.134110</v>
+        <v>79902.134109999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>22.195037</v>
+        <v>22.195036999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1489.980000</v>
+        <v>1489.98</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-577.907000</v>
+        <v>-577.90700000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>79913.353616</v>
+        <v>79913.353615999993</v>
       </c>
       <c r="BT6" s="1">
-        <v>22.198154</v>
+        <v>22.198153999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1622.570000</v>
+        <v>1622.57</v>
       </c>
       <c r="BV6" s="1">
-        <v>-826.581000</v>
+        <v>-826.58100000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>79924.203105</v>
+        <v>79924.203104999993</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.201168</v>
+        <v>22.201167999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1775.540000</v>
+        <v>1775.54</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1097.030000</v>
+        <v>-1097.03</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>79935.587779</v>
+        <v>79935.587778999994</v>
       </c>
       <c r="CD6" s="1">
-        <v>22.204330</v>
+        <v>22.204329999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2193.900000</v>
+        <v>2193.9</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1750.070000</v>
+        <v>-1750.07</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>79762.894727</v>
+        <v>79762.894727000006</v>
       </c>
       <c r="B7" s="1">
-        <v>22.156360</v>
+        <v>22.156359999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1151.800000</v>
+        <v>1151.8</v>
       </c>
       <c r="D7" s="1">
-        <v>-257.525000</v>
+        <v>-257.52499999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>79773.336969</v>
+        <v>79773.336968999996</v>
       </c>
       <c r="G7" s="1">
-        <v>22.159260</v>
+        <v>22.15926</v>
       </c>
       <c r="H7" s="1">
-        <v>1173.690000</v>
+        <v>1173.69</v>
       </c>
       <c r="I7" s="1">
-        <v>-217.203000</v>
+        <v>-217.203</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>79783.825867</v>
+        <v>79783.825867000007</v>
       </c>
       <c r="L7" s="1">
         <v>22.162174</v>
       </c>
       <c r="M7" s="1">
-        <v>1202.140000</v>
+        <v>1202.1400000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.388000</v>
+        <v>-151.38800000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>79794.335121</v>
+        <v>79794.335120999996</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.165093</v>
+        <v>22.165092999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1210.400000</v>
+        <v>1210.4000000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.626000</v>
+        <v>-129.626</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>79805.012481</v>
+        <v>79805.012480999998</v>
       </c>
       <c r="V7" s="1">
         <v>22.168059</v>
       </c>
       <c r="W7" s="1">
-        <v>1217.990000</v>
+        <v>1217.99</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.790000</v>
+        <v>-108.79</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>79815.358034</v>
+        <v>79815.358034000004</v>
       </c>
       <c r="AA7" s="1">
-        <v>22.170933</v>
+        <v>22.170933000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>1225.800000</v>
+        <v>1225.8</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.437900</v>
+        <v>-91.437899999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>79825.952579</v>
+        <v>79825.952579000004</v>
       </c>
       <c r="AF7" s="1">
         <v>22.173876</v>
       </c>
       <c r="AG7" s="1">
-        <v>1230.640000</v>
+        <v>1230.6400000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.925400</v>
+        <v>-86.925399999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>79836.427622</v>
+        <v>79836.427622000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>22.176785</v>
+        <v>22.176784999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1237.870000</v>
+        <v>1237.8699999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.196000</v>
+        <v>-90.195999999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>79847.069255</v>
+        <v>79847.069254999995</v>
       </c>
       <c r="AP7" s="1">
         <v>22.179741</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.005000</v>
+        <v>-102.005</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>79858.094826</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.182804</v>
+        <v>22.182804000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1256.010000</v>
+        <v>1256.01</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.233000</v>
+        <v>-121.233</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>79869.267706</v>
+        <v>79869.267705999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>22.185908</v>
+        <v>22.185908000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1264.540000</v>
+        <v>1264.54</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.690000</v>
+        <v>-138.69</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>79880.306171</v>
+        <v>79880.306171000004</v>
       </c>
       <c r="BE7" s="1">
-        <v>22.188974</v>
+        <v>22.188974000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1304.850000</v>
+        <v>1304.8499999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.498000</v>
+        <v>-220.49799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>79891.370957</v>
+        <v>79891.370957000006</v>
       </c>
       <c r="BJ7" s="1">
-        <v>22.192047</v>
+        <v>22.192046999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1374.920000</v>
+        <v>1374.92</v>
       </c>
       <c r="BL7" s="1">
-        <v>-356.657000</v>
+        <v>-356.65699999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>79902.521518</v>
+        <v>79902.521517999994</v>
       </c>
       <c r="BO7" s="1">
         <v>22.195145</v>
       </c>
       <c r="BP7" s="1">
-        <v>1490.030000</v>
+        <v>1490.03</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-577.950000</v>
+        <v>-577.95000000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>79913.787119</v>
+        <v>79913.787119000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.198274</v>
+        <v>22.198274000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1622.690000</v>
+        <v>1622.69</v>
       </c>
       <c r="BV7" s="1">
-        <v>-826.600000</v>
+        <v>-826.6</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>79924.624706</v>
+        <v>79924.624706000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>22.201285</v>
+        <v>22.201284999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1775.470000</v>
+        <v>1775.47</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1097.070000</v>
+        <v>-1097.07</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>79936.129938</v>
+        <v>79936.129937999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>22.204481</v>
+        <v>22.204481000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2191.790000</v>
+        <v>2191.79</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1749.080000</v>
+        <v>-1749.08</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>79763.242919</v>
+        <v>79763.242918999997</v>
       </c>
       <c r="B8" s="1">
-        <v>22.156456</v>
+        <v>22.156455999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1151.550000</v>
+        <v>1151.55</v>
       </c>
       <c r="D8" s="1">
-        <v>-257.470000</v>
+        <v>-257.47000000000003</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>79773.681689</v>
+        <v>79773.681689000005</v>
       </c>
       <c r="G8" s="1">
-        <v>22.159356</v>
+        <v>22.159355999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1173.900000</v>
+        <v>1173.9000000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-216.487000</v>
+        <v>-216.48699999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>79784.170588</v>
+        <v>79784.170587999994</v>
       </c>
       <c r="L8" s="1">
-        <v>22.162270</v>
+        <v>22.162269999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1202.060000</v>
+        <v>1202.06</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.841000</v>
+        <v>-151.84100000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>79795.000732</v>
       </c>
       <c r="Q8" s="1">
-        <v>22.165278</v>
+        <v>22.165278000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1210.290000</v>
+        <v>1210.29</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.706000</v>
+        <v>-129.70599999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>79805.451934</v>
+        <v>79805.451933999997</v>
       </c>
       <c r="V8" s="1">
-        <v>22.168181</v>
+        <v>22.168181000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1217.950000</v>
+        <v>1217.95</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.721000</v>
+        <v>-108.721</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>79815.730529</v>
+        <v>79815.730528999993</v>
       </c>
       <c r="AA8" s="1">
-        <v>22.171036</v>
+        <v>22.171036000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1225.850000</v>
+        <v>1225.8499999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.599400</v>
+        <v>-91.599400000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>79826.296803</v>
+        <v>79826.296803000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>22.173971</v>
+        <v>22.173971000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>1230.650000</v>
+        <v>1230.6500000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.959800</v>
+        <v>-86.959800000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>79836.779750</v>
+        <v>79836.779750000002</v>
       </c>
       <c r="AK8" s="1">
         <v>22.176883</v>
       </c>
       <c r="AL8" s="1">
-        <v>1237.900000</v>
+        <v>1237.9000000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.171600</v>
+        <v>-90.171599999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>79847.428855</v>
+        <v>79847.428855000006</v>
       </c>
       <c r="AP8" s="1">
         <v>22.179841</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.993000</v>
+        <v>-101.99299999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>79858.520890</v>
+        <v>79858.52089</v>
       </c>
       <c r="AU8" s="1">
-        <v>22.182922</v>
+        <v>22.182922000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1256.020000</v>
+        <v>1256.02</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.221000</v>
+        <v>-121.221</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>79869.701210</v>
+        <v>79869.701209999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>22.186028</v>
       </c>
       <c r="BA8" s="1">
-        <v>1264.550000</v>
+        <v>1264.55</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.672000</v>
+        <v>-138.672</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>79880.597819</v>
+        <v>79880.597819000002</v>
       </c>
       <c r="BE8" s="1">
         <v>22.189055</v>
       </c>
       <c r="BF8" s="1">
-        <v>1304.890000</v>
+        <v>1304.8900000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.499000</v>
+        <v>-220.499</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>79891.746397</v>
+        <v>79891.746396999995</v>
       </c>
       <c r="BJ8" s="1">
         <v>22.192152</v>
       </c>
       <c r="BK8" s="1">
-        <v>1374.910000</v>
+        <v>1374.91</v>
       </c>
       <c r="BL8" s="1">
-        <v>-356.694000</v>
+        <v>-356.69400000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>79902.940606</v>
+        <v>79902.940606000004</v>
       </c>
       <c r="BO8" s="1">
-        <v>22.195261</v>
+        <v>22.195260999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1490.020000</v>
+        <v>1490.02</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-577.918000</v>
+        <v>-577.91800000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>79914.215663</v>
+        <v>79914.215662999995</v>
       </c>
       <c r="BT8" s="1">
-        <v>22.198393</v>
+        <v>22.198392999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1622.680000</v>
+        <v>1622.68</v>
       </c>
       <c r="BV8" s="1">
-        <v>-826.602000</v>
+        <v>-826.60199999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>79925.047298</v>
+        <v>79925.047298000005</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.201402</v>
+        <v>22.201402000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1775.500000</v>
+        <v>1775.5</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1097.140000</v>
+        <v>-1097.1400000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>79936.668595</v>
+        <v>79936.668594999996</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.204630</v>
+        <v>22.204630000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>2192.700000</v>
+        <v>2192.6999999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1751.210000</v>
+        <v>-1751.21</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>79763.584145</v>
+        <v>79763.584145000001</v>
       </c>
       <c r="B9" s="1">
         <v>22.156551</v>
       </c>
       <c r="C9" s="1">
-        <v>1151.870000</v>
+        <v>1151.8699999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-257.707000</v>
+        <v>-257.70699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>79774.337440</v>
+        <v>79774.337440000003</v>
       </c>
       <c r="G9" s="1">
-        <v>22.159538</v>
+        <v>22.159538000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1173.440000</v>
+        <v>1173.44</v>
       </c>
       <c r="I9" s="1">
-        <v>-217.304000</v>
+        <v>-217.304</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>79784.836737</v>
+        <v>79784.836737000005</v>
       </c>
       <c r="L9" s="1">
-        <v>22.162455</v>
+        <v>22.162455000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1201.980000</v>
+        <v>1201.98</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.617000</v>
+        <v>-151.61699999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>79795.379180</v>
+        <v>79795.379180000004</v>
       </c>
       <c r="Q9" s="1">
-        <v>22.165383</v>
+        <v>22.165382999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1210.270000</v>
+        <v>1210.27</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.632000</v>
+        <v>-129.63200000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>79805.568992</v>
       </c>
       <c r="V9" s="1">
-        <v>22.168214</v>
+        <v>22.168213999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1217.970000</v>
+        <v>1217.97</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.644000</v>
+        <v>-108.64400000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>79816.081233</v>
+        <v>79816.081233000004</v>
       </c>
       <c r="AA9" s="1">
-        <v>22.171134</v>
+        <v>22.171133999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1225.810000</v>
+        <v>1225.81</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.446400</v>
+        <v>-91.446399999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>79826.639075</v>
+        <v>79826.639074999999</v>
       </c>
       <c r="AF9" s="1">
         <v>22.174066</v>
       </c>
       <c r="AG9" s="1">
-        <v>1230.650000</v>
+        <v>1230.6500000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-87.018500</v>
+        <v>-87.018500000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>79837.124010</v>
+        <v>79837.12401</v>
       </c>
       <c r="AK9" s="1">
-        <v>22.176979</v>
+        <v>22.176978999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1237.860000</v>
+        <v>1237.8599999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.182600</v>
+        <v>-90.182599999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>79847.856406</v>
+        <v>79847.856406000006</v>
       </c>
       <c r="AP9" s="1">
-        <v>22.179960</v>
+        <v>22.179960000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1245.960000</v>
+        <v>1245.96</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.990000</v>
+        <v>-101.99</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>79858.820968</v>
       </c>
       <c r="AU9" s="1">
-        <v>22.183006</v>
+        <v>22.183005999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1256.030000</v>
+        <v>1256.03</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.236000</v>
+        <v>-121.236</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>79869.985913</v>
+        <v>79869.985912999997</v>
       </c>
       <c r="AZ9" s="1">
         <v>22.186107</v>
       </c>
       <c r="BA9" s="1">
-        <v>1264.530000</v>
+        <v>1264.53</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.671000</v>
+        <v>-138.67099999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>79880.956924</v>
+        <v>79880.956923999998</v>
       </c>
       <c r="BE9" s="1">
         <v>22.189155</v>
       </c>
       <c r="BF9" s="1">
-        <v>1304.870000</v>
+        <v>1304.8699999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.541000</v>
+        <v>-220.541</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>79892.121868</v>
+        <v>79892.121868000002</v>
       </c>
       <c r="BJ9" s="1">
         <v>22.192256</v>
       </c>
       <c r="BK9" s="1">
-        <v>1374.950000</v>
+        <v>1374.95</v>
       </c>
       <c r="BL9" s="1">
-        <v>-356.656000</v>
+        <v>-356.65600000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>79903.336413</v>
+        <v>79903.336412999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>22.195371</v>
+        <v>22.195371000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1489.990000</v>
+        <v>1489.99</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-577.890000</v>
+        <v>-577.89</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>79914.643711</v>
+        <v>79914.643710999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>22.198512</v>
+        <v>22.198512000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1622.620000</v>
+        <v>1622.62</v>
       </c>
       <c r="BV9" s="1">
-        <v>-826.535000</v>
+        <v>-826.53499999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>79925.471872</v>
+        <v>79925.471871999995</v>
       </c>
       <c r="BY9" s="1">
-        <v>22.201520</v>
+        <v>22.201519999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1775.650000</v>
+        <v>1775.65</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1097.150000</v>
+        <v>-1097.1500000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>79937.208705</v>
+        <v>79937.208704999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>22.204780</v>
+        <v>22.20478</v>
       </c>
       <c r="CE9" s="1">
-        <v>2193.220000</v>
+        <v>2193.2199999999998</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1748.710000</v>
+        <v>-1748.71</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>79764.257242</v>
+        <v>79764.257242000007</v>
       </c>
       <c r="B10" s="1">
-        <v>22.156738</v>
+        <v>22.156738000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1151.360000</v>
+        <v>1151.3599999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-257.713000</v>
+        <v>-257.71300000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>79774.718838</v>
+        <v>79774.718838000001</v>
       </c>
       <c r="G10" s="1">
         <v>22.159644</v>
       </c>
       <c r="H10" s="1">
-        <v>1173.700000</v>
+        <v>1173.7</v>
       </c>
       <c r="I10" s="1">
-        <v>-217.490000</v>
+        <v>-217.49</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>79785.207225</v>
+        <v>79785.207225000006</v>
       </c>
       <c r="L10" s="1">
-        <v>22.162558</v>
+        <v>22.162558000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1202.060000</v>
+        <v>1202.06</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.610000</v>
+        <v>-151.61000000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>79795.727373</v>
+        <v>79795.727373000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.165480</v>
+        <v>22.165479999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1210.340000</v>
+        <v>1210.3399999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.627000</v>
+        <v>-129.62700000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>79805.912756</v>
+        <v>79805.912756000005</v>
       </c>
       <c r="V10" s="1">
-        <v>22.168309</v>
+        <v>22.168309000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1217.990000</v>
+        <v>1217.99</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.697000</v>
+        <v>-108.697</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>79816.434848</v>
+        <v>79816.434848000004</v>
       </c>
       <c r="AA10" s="1">
         <v>22.171232</v>
       </c>
       <c r="AB10" s="1">
-        <v>1225.860000</v>
+        <v>1225.8599999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.490900</v>
+        <v>-91.490899999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>79827.060146</v>
+        <v>79827.060146000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>22.174183</v>
+        <v>22.174182999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1230.660000</v>
+        <v>1230.6600000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.882000</v>
+        <v>-86.882000000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>79837.576820</v>
+        <v>79837.576820000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>22.177105</v>
+        <v>22.177105000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1237.880000</v>
+        <v>1237.8800000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.198800</v>
+        <v>-90.198800000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>79848.149542</v>
+        <v>79848.149541999999</v>
       </c>
       <c r="AP10" s="1">
         <v>22.180042</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1245.960000</v>
+        <v>1245.96</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.008000</v>
+        <v>-102.008</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>79859.187016</v>
+        <v>79859.187015999996</v>
       </c>
       <c r="AU10" s="1">
-        <v>22.183108</v>
+        <v>22.183108000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1256.010000</v>
+        <v>1256.01</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.238000</v>
+        <v>-121.238</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>79870.345762</v>
+        <v>79870.345761999997</v>
       </c>
       <c r="AZ10" s="1">
         <v>22.186207</v>
       </c>
       <c r="BA10" s="1">
-        <v>1264.530000</v>
+        <v>1264.53</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.651000</v>
+        <v>-138.65100000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>79881.319003</v>
+        <v>79881.319002999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>22.189255</v>
+        <v>22.189254999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1304.880000</v>
+        <v>1304.8800000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.515000</v>
+        <v>-220.51499999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>79892.871323</v>
+        <v>79892.871322999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.192464</v>
+        <v>22.192464000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1374.900000</v>
+        <v>1374.9</v>
       </c>
       <c r="BL10" s="1">
-        <v>-356.656000</v>
+        <v>-356.65600000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>79903.759198</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.195489</v>
+        <v>22.195488999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1490.000000</v>
+        <v>1490</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.959000</v>
+        <v>-577.95899999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>79915.055391</v>
+        <v>79915.055391000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>22.198626</v>
+        <v>22.198626000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1622.620000</v>
+        <v>1622.62</v>
       </c>
       <c r="BV10" s="1">
-        <v>-826.604000</v>
+        <v>-826.60400000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>79925.889007</v>
+        <v>79925.889007000005</v>
       </c>
       <c r="BY10" s="1">
-        <v>22.201636</v>
+        <v>22.201636000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1775.570000</v>
+        <v>1775.57</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1097.090000</v>
+        <v>-1097.0899999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>79937.747856</v>
+        <v>79937.747856000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>22.204930</v>
+        <v>22.204930000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2191.460000</v>
+        <v>2191.46</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1750.590000</v>
+        <v>-1750.59</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>79764.609861</v>
+        <v>79764.609861000004</v>
       </c>
       <c r="B11" s="1">
-        <v>22.156836</v>
+        <v>22.156835999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1151.680000</v>
+        <v>1151.68</v>
       </c>
       <c r="D11" s="1">
-        <v>-257.592000</v>
+        <v>-257.59199999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>79775.062055</v>
+        <v>79775.062055000002</v>
       </c>
       <c r="G11" s="1">
-        <v>22.159739</v>
+        <v>22.159738999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1174.150000</v>
+        <v>1174.1500000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-216.363000</v>
+        <v>-216.363</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>79785.551945</v>
+        <v>79785.551944999999</v>
       </c>
       <c r="L11" s="1">
-        <v>22.162653</v>
+        <v>22.162652999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1202.250000</v>
+        <v>1202.25</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.541000</v>
+        <v>-151.541</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>79796.077547</v>
+        <v>79796.077546999994</v>
       </c>
       <c r="Q11" s="1">
-        <v>22.165577</v>
+        <v>22.165576999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1210.350000</v>
+        <v>1210.3499999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.672000</v>
+        <v>-129.672</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>79806.350686</v>
+        <v>79806.350686000005</v>
       </c>
       <c r="V11" s="1">
-        <v>22.168431</v>
+        <v>22.168431000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1217.960000</v>
+        <v>1217.96</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.747000</v>
+        <v>-108.747</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>79816.858928</v>
+        <v>79816.858928000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>22.171350</v>
+        <v>22.17135</v>
       </c>
       <c r="AB11" s="1">
-        <v>1225.800000</v>
+        <v>1225.8</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.531200</v>
+        <v>-91.531199999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>79827.333938</v>
+        <v>79827.333937999996</v>
       </c>
       <c r="AF11" s="1">
-        <v>22.174259</v>
+        <v>22.174258999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.943700</v>
+        <v>-86.943700000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>79837.820852</v>
+        <v>79837.820852000004</v>
       </c>
       <c r="AK11" s="1">
-        <v>22.177172</v>
+        <v>22.177171999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1237.890000</v>
+        <v>1237.8900000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.228900</v>
+        <v>-90.228899999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>79848.512615</v>
@@ -2914,195 +3330,195 @@
         <v>22.180142</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1245.970000</v>
+        <v>1245.97</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.989000</v>
+        <v>-101.989</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>79859.552103</v>
+        <v>79859.552102999995</v>
       </c>
       <c r="AU11" s="1">
-        <v>22.183209</v>
+        <v>22.183209000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1256.020000</v>
+        <v>1256.02</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.229000</v>
+        <v>-121.229</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>79870.702634</v>
+        <v>79870.702634000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>22.186306</v>
+        <v>22.186305999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1264.540000</v>
+        <v>1264.54</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.660000</v>
+        <v>-138.66</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>79882.040681</v>
+        <v>79882.040680999999</v>
       </c>
       <c r="BE11" s="1">
         <v>22.189456</v>
       </c>
       <c r="BF11" s="1">
-        <v>1304.860000</v>
+        <v>1304.8599999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.520000</v>
+        <v>-220.52</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>79893.248282</v>
       </c>
       <c r="BJ11" s="1">
-        <v>22.192569</v>
+        <v>22.192568999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1374.940000</v>
+        <v>1374.94</v>
       </c>
       <c r="BL11" s="1">
-        <v>-356.658000</v>
+        <v>-356.65800000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>79904.158780</v>
+        <v>79904.158779999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>22.195600</v>
+        <v>22.195599999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1490.040000</v>
+        <v>1490.04</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-577.928000</v>
+        <v>-577.928</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>79915.485917</v>
+        <v>79915.485916999998</v>
       </c>
       <c r="BT11" s="1">
         <v>22.198746</v>
       </c>
       <c r="BU11" s="1">
-        <v>1622.570000</v>
+        <v>1622.57</v>
       </c>
       <c r="BV11" s="1">
-        <v>-826.561000</v>
+        <v>-826.56100000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>79926.659791</v>
+        <v>79926.659790999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>22.201850</v>
+        <v>22.20185</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1775.460000</v>
+        <v>1775.46</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1097.310000</v>
+        <v>-1097.31</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>79938.601967</v>
+        <v>79938.601966999995</v>
       </c>
       <c r="CD11" s="1">
-        <v>22.205167</v>
+        <v>22.205166999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2192.450000</v>
+        <v>2192.4499999999998</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1748.780000</v>
+        <v>-1748.78</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>79764.956069</v>
+        <v>79764.956069000007</v>
       </c>
       <c r="B12" s="1">
-        <v>22.156932</v>
+        <v>22.156932000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1151.670000</v>
+        <v>1151.67</v>
       </c>
       <c r="D12" s="1">
-        <v>-257.761000</v>
+        <v>-257.76100000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>79775.412230</v>
+        <v>79775.412230000002</v>
       </c>
       <c r="G12" s="1">
         <v>22.159837</v>
       </c>
       <c r="H12" s="1">
-        <v>1173.220000</v>
+        <v>1173.22</v>
       </c>
       <c r="I12" s="1">
-        <v>-217.266000</v>
+        <v>-217.26599999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>79785.898168</v>
       </c>
       <c r="L12" s="1">
-        <v>22.162749</v>
+        <v>22.162749000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>1202.340000</v>
+        <v>1202.3399999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.706000</v>
+        <v>-151.70599999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>79796.494186</v>
+        <v>79796.494185999996</v>
       </c>
       <c r="Q12" s="1">
-        <v>22.165693</v>
+        <v>22.165693000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1210.350000</v>
+        <v>1210.3499999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.716000</v>
+        <v>-129.71600000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>79806.632459</v>
@@ -3111,1026 +3527,1026 @@
         <v>22.168509</v>
       </c>
       <c r="W12" s="1">
-        <v>1218.050000</v>
+        <v>1218.05</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.738000</v>
+        <v>-108.738</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>79817.132720</v>
+        <v>79817.132719999994</v>
       </c>
       <c r="AA12" s="1">
         <v>22.171426</v>
       </c>
       <c r="AB12" s="1">
-        <v>1225.780000</v>
+        <v>1225.78</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.529200</v>
+        <v>-91.529200000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>79827.678174</v>
+        <v>79827.678174000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>22.174355</v>
+        <v>22.174354999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>1230.660000</v>
+        <v>1230.6600000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.967000</v>
+        <v>-86.966999999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>79838.172020</v>
+        <v>79838.172019999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.177270</v>
+        <v>22.17727</v>
       </c>
       <c r="AL12" s="1">
-        <v>1237.870000</v>
+        <v>1237.8699999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.196400</v>
+        <v>-90.196399999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>79848.868779</v>
+        <v>79848.868778999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.180241</v>
+        <v>22.180240999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.000000</v>
+        <v>-102</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>79860.282680</v>
+        <v>79860.282680000004</v>
       </c>
       <c r="AU12" s="1">
-        <v>22.183412</v>
+        <v>22.183412000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1256.010000</v>
+        <v>1256.01</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.235000</v>
+        <v>-121.235</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>79871.425305</v>
+        <v>79871.425304999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>22.186507</v>
+        <v>22.186506999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1264.540000</v>
+        <v>1264.54</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.643000</v>
+        <v>-138.643</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>79882.402266</v>
+        <v>79882.402266000005</v>
       </c>
       <c r="BE12" s="1">
         <v>22.189556</v>
       </c>
       <c r="BF12" s="1">
-        <v>1304.860000</v>
+        <v>1304.8599999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.498000</v>
+        <v>-220.49799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>79893.622299</v>
+        <v>79893.622298999995</v>
       </c>
       <c r="BJ12" s="1">
-        <v>22.192673</v>
+        <v>22.192672999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1374.910000</v>
+        <v>1374.91</v>
       </c>
       <c r="BL12" s="1">
-        <v>-356.675000</v>
+        <v>-356.67500000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>79904.581868</v>
+        <v>79904.581867999994</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.195717</v>
+        <v>22.195716999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1490.040000</v>
+        <v>1490.04</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-577.955000</v>
+        <v>-577.95500000000004</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>79916.204620</v>
+        <v>79916.204620000004</v>
       </c>
       <c r="BT12" s="1">
-        <v>22.198946</v>
+        <v>22.198945999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1622.720000</v>
+        <v>1622.72</v>
       </c>
       <c r="BV12" s="1">
-        <v>-826.635000</v>
+        <v>-826.63499999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>79926.784784</v>
+        <v>79926.784784000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>22.201885</v>
+        <v>22.201885000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1775.530000</v>
+        <v>1775.53</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1097.090000</v>
+        <v>-1097.0899999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>79938.828142</v>
+        <v>79938.828141999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>22.205230</v>
+        <v>22.20523</v>
       </c>
       <c r="CE12" s="1">
-        <v>2192.340000</v>
+        <v>2192.34</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1748.360000</v>
+        <v>-1748.36</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>79765.295827</v>
+        <v>79765.295826999994</v>
       </c>
       <c r="B13" s="1">
-        <v>22.157027</v>
+        <v>22.157026999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1151.540000</v>
+        <v>1151.54</v>
       </c>
       <c r="D13" s="1">
-        <v>-257.510000</v>
+        <v>-257.51</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>79775.845238</v>
+        <v>79775.845237999994</v>
       </c>
       <c r="G13" s="1">
-        <v>22.159957</v>
+        <v>22.159956999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1173.770000</v>
+        <v>1173.77</v>
       </c>
       <c r="I13" s="1">
-        <v>-216.966000</v>
+        <v>-216.96600000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>79786.326200</v>
+        <v>79786.326199999996</v>
       </c>
       <c r="L13" s="1">
         <v>22.162868</v>
       </c>
       <c r="M13" s="1">
-        <v>1202.150000</v>
+        <v>1202.1500000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.634000</v>
+        <v>-151.63399999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>79796.774426</v>
+        <v>79796.774426000004</v>
       </c>
       <c r="Q13" s="1">
-        <v>22.165771</v>
+        <v>22.165770999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1210.380000</v>
+        <v>1210.3800000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.672000</v>
+        <v>-129.672</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>79806.962749</v>
+        <v>79806.962748999998</v>
       </c>
       <c r="V13" s="1">
-        <v>22.168601</v>
+        <v>22.168600999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1218.070000</v>
+        <v>1218.07</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.735000</v>
+        <v>-108.735</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>79817.483888</v>
+        <v>79817.483888000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>22.171523</v>
+        <v>22.171523000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1225.920000</v>
+        <v>1225.92</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.551700</v>
+        <v>-91.551699999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>79828.021889</v>
+        <v>79828.021888999996</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.174451</v>
+        <v>22.174451000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1230.620000</v>
+        <v>1230.6199999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.913000</v>
+        <v>-86.912999999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>79838.974546</v>
+        <v>79838.974545999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>22.177493</v>
+        <v>22.177492999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1237.890000</v>
+        <v>1237.8900000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.220700</v>
+        <v>-90.220699999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>79849.591908</v>
+        <v>79849.591908000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>22.180442</v>
+        <v>22.180441999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1245.950000</v>
+        <v>1245.95</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.996000</v>
+        <v>-101.996</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>79860.674522</v>
+        <v>79860.674522000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>22.183521</v>
+        <v>22.183520999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.235000</v>
+        <v>-121.235</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>79871.802263</v>
+        <v>79871.802263000005</v>
       </c>
       <c r="AZ13" s="1">
         <v>22.186612</v>
       </c>
       <c r="BA13" s="1">
-        <v>1264.550000</v>
+        <v>1264.55</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.660000</v>
+        <v>-138.66</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>79882.766328</v>
+        <v>79882.766327999998</v>
       </c>
       <c r="BE13" s="1">
         <v>22.189657</v>
       </c>
       <c r="BF13" s="1">
-        <v>1304.890000</v>
+        <v>1304.8900000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.512000</v>
+        <v>-220.512</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>79894.318649</v>
+        <v>79894.318648999993</v>
       </c>
       <c r="BJ13" s="1">
-        <v>22.192866</v>
+        <v>22.192865999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1374.920000</v>
+        <v>1374.92</v>
       </c>
       <c r="BL13" s="1">
-        <v>-356.704000</v>
+        <v>-356.70400000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>79905.287674</v>
+        <v>79905.287674000007</v>
       </c>
       <c r="BO13" s="1">
-        <v>22.195913</v>
+        <v>22.195913000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1489.980000</v>
+        <v>1489.98</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-577.907000</v>
+        <v>-577.90700000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>79916.329116</v>
+        <v>79916.329115999994</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.198980</v>
+        <v>22.198979999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1622.660000</v>
+        <v>1622.66</v>
       </c>
       <c r="BV13" s="1">
-        <v>-826.606000</v>
+        <v>-826.60599999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>79927.208861</v>
+        <v>79927.208861000006</v>
       </c>
       <c r="BY13" s="1">
         <v>22.202002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1775.500000</v>
+        <v>1775.5</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1097.140000</v>
+        <v>-1097.1400000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>79939.346462</v>
+        <v>79939.346462000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>22.205374</v>
+        <v>22.205373999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2191.250000</v>
+        <v>2191.25</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1750.140000</v>
+        <v>-1750.14</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>79765.721728</v>
+        <v>79765.721728000004</v>
       </c>
       <c r="B14" s="1">
         <v>22.157145</v>
       </c>
       <c r="C14" s="1">
-        <v>1151.610000</v>
+        <v>1151.6099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-257.540000</v>
+        <v>-257.54000000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>79776.116053</v>
+        <v>79776.116053000005</v>
       </c>
       <c r="G14" s="1">
-        <v>22.160032</v>
+        <v>22.160032000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1173.040000</v>
+        <v>1173.04</v>
       </c>
       <c r="I14" s="1">
-        <v>-217.829000</v>
+        <v>-217.82900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>79786.597017</v>
+        <v>79786.597016999993</v>
       </c>
       <c r="L14" s="1">
         <v>22.162944</v>
       </c>
       <c r="M14" s="1">
-        <v>1202.040000</v>
+        <v>1202.04</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.591000</v>
+        <v>-151.59100000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>79797.123114</v>
+        <v>79797.123114000002</v>
       </c>
       <c r="Q14" s="1">
         <v>22.165868</v>
       </c>
       <c r="R14" s="1">
-        <v>1210.350000</v>
+        <v>1210.3499999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.664000</v>
+        <v>-129.66399999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>79807.318396</v>
+        <v>79807.318396000002</v>
       </c>
       <c r="V14" s="1">
-        <v>22.168700</v>
+        <v>22.168700000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1217.910000</v>
+        <v>1217.9100000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.750000</v>
+        <v>-108.75</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>79817.833753</v>
+        <v>79817.833752999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>22.171620</v>
+        <v>22.171620000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1225.870000</v>
+        <v>1225.8699999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.514600</v>
+        <v>-91.514600000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>79828.706864</v>
+        <v>79828.706864000007</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.174641</v>
+        <v>22.174641000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.959700</v>
+        <v>-86.959699999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>79839.217090</v>
+        <v>79839.217090000006</v>
       </c>
       <c r="AK14" s="1">
-        <v>22.177560</v>
+        <v>22.17756</v>
       </c>
       <c r="AL14" s="1">
-        <v>1237.870000</v>
+        <v>1237.8699999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.223400</v>
+        <v>-90.223399999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>79849.952042</v>
+        <v>79849.952042000004</v>
       </c>
       <c r="AP14" s="1">
-        <v>22.180542</v>
+        <v>22.180541999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.017000</v>
+        <v>-102.017</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>79861.037094</v>
+        <v>79861.037093999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.183621</v>
+        <v>22.183620999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1256.030000</v>
+        <v>1256.03</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.239000</v>
+        <v>-121.239</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>79872.180215</v>
       </c>
       <c r="AZ14" s="1">
-        <v>22.186717</v>
+        <v>22.186717000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1264.520000</v>
+        <v>1264.52</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.673000</v>
+        <v>-138.673</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>79883.438443</v>
+        <v>79883.438443000006</v>
       </c>
       <c r="BE14" s="1">
-        <v>22.189844</v>
+        <v>22.189844000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1304.860000</v>
+        <v>1304.8599999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.530000</v>
+        <v>-220.53</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>79894.747192</v>
+        <v>79894.747191999995</v>
       </c>
       <c r="BJ14" s="1">
         <v>22.192985</v>
       </c>
       <c r="BK14" s="1">
-        <v>1374.910000</v>
+        <v>1374.91</v>
       </c>
       <c r="BL14" s="1">
-        <v>-356.700000</v>
+        <v>-356.7</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>79905.397787</v>
+        <v>79905.397786999994</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.195944</v>
+        <v>22.195944000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1490.020000</v>
+        <v>1490.02</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-577.906000</v>
+        <v>-577.90599999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>79916.766587</v>
+        <v>79916.766587000006</v>
       </c>
       <c r="BT14" s="1">
         <v>22.199102</v>
       </c>
       <c r="BU14" s="1">
-        <v>1622.580000</v>
+        <v>1622.58</v>
       </c>
       <c r="BV14" s="1">
-        <v>-826.546000</v>
+        <v>-826.54600000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>79927.655790</v>
+        <v>79927.655790000004</v>
       </c>
       <c r="BY14" s="1">
-        <v>22.202127</v>
+        <v>22.202127000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1775.480000</v>
+        <v>1775.48</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1097.280000</v>
+        <v>-1097.28</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>79939.866269</v>
+        <v>79939.866269000006</v>
       </c>
       <c r="CD14" s="1">
-        <v>22.205518</v>
+        <v>22.205518000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2191.550000</v>
+        <v>2191.5500000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1749.590000</v>
+        <v>-1749.59</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>79765.996709</v>
+        <v>79765.996708999999</v>
       </c>
       <c r="B15" s="1">
         <v>22.157221</v>
       </c>
       <c r="C15" s="1">
-        <v>1151.540000</v>
+        <v>1151.54</v>
       </c>
       <c r="D15" s="1">
-        <v>-257.704000</v>
+        <v>-257.70400000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>79776.460773</v>
+        <v>79776.460772999999</v>
       </c>
       <c r="G15" s="1">
         <v>22.160128</v>
       </c>
       <c r="H15" s="1">
-        <v>1173.440000</v>
+        <v>1173.44</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.260000</v>
+        <v>-217.26</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>79786.946201</v>
+        <v>79786.946200999999</v>
       </c>
       <c r="L15" s="1">
         <v>22.163041</v>
       </c>
       <c r="M15" s="1">
-        <v>1202.030000</v>
+        <v>1202.03</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.704000</v>
+        <v>-151.70400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>79797.475769</v>
+        <v>79797.475768999997</v>
       </c>
       <c r="Q15" s="1">
         <v>22.165965</v>
       </c>
       <c r="R15" s="1">
-        <v>1210.310000</v>
+        <v>1210.31</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.627000</v>
+        <v>-129.62700000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>79808.006827</v>
+        <v>79808.006827000005</v>
       </c>
       <c r="V15" s="1">
-        <v>22.168891</v>
+        <v>22.168890999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1217.970000</v>
+        <v>1217.97</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.726000</v>
+        <v>-108.726</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>79818.529950</v>
+        <v>79818.529949999996</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.171814</v>
+        <v>22.171814000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1225.780000</v>
+        <v>1225.78</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.490400</v>
+        <v>-91.490399999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>79829.050097</v>
+        <v>79829.050096999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>22.174736</v>
+        <v>22.174735999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1230.620000</v>
+        <v>1230.6199999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.908300</v>
+        <v>-86.908299999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>79839.563795</v>
+        <v>79839.563794999995</v>
       </c>
       <c r="AK15" s="1">
         <v>22.177657</v>
       </c>
       <c r="AL15" s="1">
-        <v>1237.870000</v>
+        <v>1237.8699999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.192100</v>
+        <v>-90.192099999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>79850.310643</v>
+        <v>79850.310643000004</v>
       </c>
       <c r="AP15" s="1">
-        <v>22.180642</v>
+        <v>22.180641999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.014000</v>
+        <v>-102.014</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>79861.716148</v>
+        <v>79861.716148000007</v>
       </c>
       <c r="AU15" s="1">
-        <v>22.183810</v>
+        <v>22.183810000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1256.020000</v>
+        <v>1256.02</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.242000</v>
+        <v>-121.242</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>79873.053210</v>
+        <v>79873.053209999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.186959</v>
+        <v>22.186959000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1264.560000</v>
+        <v>1264.56</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.665000</v>
+        <v>-138.66499999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>79883.873895</v>
+        <v>79883.873894999997</v>
       </c>
       <c r="BE15" s="1">
-        <v>22.189965</v>
+        <v>22.189965000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1304.860000</v>
+        <v>1304.8599999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.533000</v>
+        <v>-220.53299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>79895.123689</v>
       </c>
       <c r="BJ15" s="1">
-        <v>22.193090</v>
+        <v>22.193090000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1374.910000</v>
+        <v>1374.91</v>
       </c>
       <c r="BL15" s="1">
-        <v>-356.674000</v>
+        <v>-356.67399999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>79905.819882</v>
+        <v>79905.819881999996</v>
       </c>
       <c r="BO15" s="1">
         <v>22.196061</v>
       </c>
       <c r="BP15" s="1">
-        <v>1489.960000</v>
+        <v>1489.96</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-577.885000</v>
+        <v>-577.88499999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>79917.194139</v>
+        <v>79917.194138999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>22.199221</v>
+        <v>22.199221000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1622.620000</v>
+        <v>1622.62</v>
       </c>
       <c r="BV15" s="1">
-        <v>-826.674000</v>
+        <v>-826.67399999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>79928.085790</v>
+        <v>79928.085789999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>22.202246</v>
+        <v>22.202245999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1775.630000</v>
+        <v>1775.63</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1097.030000</v>
+        <v>-1097.03</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>79940.413852</v>
+        <v>79940.413851999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.205671</v>
+        <v>22.205670999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2191.730000</v>
+        <v>2191.73</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1748.700000</v>
+        <v>-1748.7</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>79766.338121</v>
+        <v>79766.338120999993</v>
       </c>
       <c r="B16" s="1">
-        <v>22.157316</v>
+        <v>22.157316000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1151.760000</v>
+        <v>1151.76</v>
       </c>
       <c r="D16" s="1">
-        <v>-257.770000</v>
+        <v>-257.77</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>79776.804514</v>
+        <v>79776.804514000003</v>
       </c>
       <c r="G16" s="1">
-        <v>22.160223</v>
+        <v>22.160222999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1173.690000</v>
+        <v>1173.69</v>
       </c>
       <c r="I16" s="1">
-        <v>-216.928000</v>
+        <v>-216.928</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>79787.294919</v>
+        <v>79787.294919000007</v>
       </c>
       <c r="L16" s="1">
-        <v>22.163137</v>
+        <v>22.163136999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1202.010000</v>
+        <v>1202.01</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.606000</v>
+        <v>-151.60599999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>79798.169673</v>
+        <v>79798.169672999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>22.166158</v>
+        <v>22.166157999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1210.330000</v>
+        <v>1210.33</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.671000</v>
+        <v>-129.67099999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>79808.350091</v>
@@ -4139,497 +4555,497 @@
         <v>22.168986</v>
       </c>
       <c r="W16" s="1">
-        <v>1218.040000</v>
+        <v>1218.04</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.697000</v>
+        <v>-108.697</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>79818.879164</v>
+        <v>79818.879163999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>22.171911</v>
+        <v>22.171911000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1225.730000</v>
+        <v>1225.73</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.576100</v>
+        <v>-91.576099999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>79829.393327</v>
+        <v>79829.393326999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>22.174831</v>
+        <v>22.174831000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.910100</v>
+        <v>-86.9101</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>79840.226487</v>
+        <v>79840.226487000007</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.177841</v>
+        <v>22.177841000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1237.880000</v>
+        <v>1237.8800000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.189900</v>
+        <v>-90.189899999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>79850.989172</v>
+        <v>79850.989172000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.180830</v>
+        <v>22.18083</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.007000</v>
+        <v>-102.00700000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>79862.163509</v>
+        <v>79862.163509000005</v>
       </c>
       <c r="AU16" s="1">
-        <v>22.183934</v>
+        <v>22.183934000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1256.040000</v>
+        <v>1256.04</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.196000</v>
+        <v>-121.196</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>79873.257030</v>
+        <v>79873.257029999993</v>
       </c>
       <c r="AZ16" s="1">
         <v>22.187016</v>
       </c>
       <c r="BA16" s="1">
-        <v>1264.530000</v>
+        <v>1264.53</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.663000</v>
+        <v>-138.66300000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>79884.235478</v>
+        <v>79884.235478000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>22.190065</v>
+        <v>22.190065000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1304.850000</v>
+        <v>1304.8499999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.521000</v>
+        <v>-220.52099999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>79895.487720</v>
+        <v>79895.487720000005</v>
       </c>
       <c r="BJ16" s="1">
-        <v>22.193191</v>
+        <v>22.193190999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1374.900000</v>
+        <v>1374.9</v>
       </c>
       <c r="BL16" s="1">
-        <v>-356.674000</v>
+        <v>-356.67399999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>79906.220153</v>
+        <v>79906.220153000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>22.196172</v>
+        <v>22.196172000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1489.970000</v>
+        <v>1489.97</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-577.951000</v>
+        <v>-577.95100000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>79917.622682</v>
+        <v>79917.622682000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>22.199340</v>
+        <v>22.199339999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1622.630000</v>
+        <v>1622.63</v>
       </c>
       <c r="BV16" s="1">
-        <v>-826.603000</v>
+        <v>-826.60299999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>79928.508380</v>
+        <v>79928.508379999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.202363</v>
+        <v>22.202362999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1775.400000</v>
+        <v>1775.4</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1097.160000</v>
+        <v>-1097.1600000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>79940.944571</v>
       </c>
       <c r="CD16" s="1">
-        <v>22.205818</v>
+        <v>22.205818000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2191.640000</v>
+        <v>2191.64</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1750.730000</v>
+        <v>-1750.73</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>79766.679170</v>
+        <v>79766.679170000003</v>
       </c>
       <c r="B17" s="1">
         <v>22.157411</v>
       </c>
       <c r="C17" s="1">
-        <v>1151.670000</v>
+        <v>1151.67</v>
       </c>
       <c r="D17" s="1">
-        <v>-257.552000</v>
+        <v>-257.55200000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>79777.492948</v>
+        <v>79777.492947999999</v>
       </c>
       <c r="G17" s="1">
         <v>22.160415</v>
       </c>
       <c r="H17" s="1">
-        <v>1173.250000</v>
+        <v>1173.25</v>
       </c>
       <c r="I17" s="1">
-        <v>-217.905000</v>
+        <v>-217.905</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>79787.989321</v>
+        <v>79787.989321000001</v>
       </c>
       <c r="L17" s="1">
-        <v>22.163330</v>
+        <v>22.163329999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1202.010000</v>
+        <v>1202.01</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.680000</v>
+        <v>-151.68</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>79798.519384</v>
+        <v>79798.519383999999</v>
       </c>
       <c r="Q17" s="1">
         <v>22.166255</v>
       </c>
       <c r="R17" s="1">
-        <v>1210.330000</v>
+        <v>1210.33</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.641000</v>
+        <v>-129.64099999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>79808.691802</v>
+        <v>79808.691802000001</v>
       </c>
       <c r="V17" s="1">
-        <v>22.169081</v>
+        <v>22.169080999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1218.050000</v>
+        <v>1218.05</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.745000</v>
+        <v>-108.745</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>79819.225838</v>
+        <v>79819.225837999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>22.172007</v>
+        <v>22.172007000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1225.800000</v>
+        <v>1225.8</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.565600</v>
+        <v>-91.565600000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>79830.055982</v>
+        <v>79830.055982000005</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.175016</v>
+        <v>22.175015999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.943600</v>
+        <v>-86.943600000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>79840.612368</v>
+        <v>79840.612368000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>22.177948</v>
+        <v>22.177948000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1237.900000</v>
+        <v>1237.9000000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.183100</v>
+        <v>-90.183099999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>79851.422642</v>
+        <v>79851.422642000005</v>
       </c>
       <c r="AP17" s="1">
         <v>22.180951</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1245.950000</v>
+        <v>1245.95</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.007000</v>
+        <v>-102.00700000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>79862.530557</v>
+        <v>79862.530557000006</v>
       </c>
       <c r="AU17" s="1">
-        <v>22.184036</v>
+        <v>22.184035999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.239000</v>
+        <v>-121.239</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>79873.614149</v>
+        <v>79873.614149000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>22.187115</v>
+        <v>22.187114999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1264.510000</v>
+        <v>1264.51</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.676000</v>
+        <v>-138.67599999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>79884.598054</v>
+        <v>79884.598054000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.190166</v>
+        <v>22.190166000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1304.880000</v>
+        <v>1304.8800000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.499000</v>
+        <v>-220.499</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>79895.919272</v>
+        <v>79895.919271999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>22.193311</v>
+        <v>22.193311000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1374.930000</v>
+        <v>1374.93</v>
       </c>
       <c r="BL17" s="1">
-        <v>-356.696000</v>
+        <v>-356.69600000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>79906.646217</v>
+        <v>79906.646217000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>22.196291</v>
+        <v>22.196290999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1489.970000</v>
+        <v>1489.97</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-577.947000</v>
+        <v>-577.947</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>79918.037869</v>
+        <v>79918.037869000007</v>
       </c>
       <c r="BT17" s="1">
         <v>22.199455</v>
       </c>
       <c r="BU17" s="1">
-        <v>1622.660000</v>
+        <v>1622.66</v>
       </c>
       <c r="BV17" s="1">
-        <v>-826.524000</v>
+        <v>-826.524</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>79928.930475</v>
+        <v>79928.930475000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.202481</v>
+        <v>22.202480999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1775.630000</v>
+        <v>1775.63</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1097.070000</v>
+        <v>-1097.07</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>79941.462891</v>
+        <v>79941.462891000003</v>
       </c>
       <c r="CD17" s="1">
         <v>22.205962</v>
       </c>
       <c r="CE17" s="1">
-        <v>2193.790000</v>
+        <v>2193.79</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1749.600000</v>
+        <v>-1749.6</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>79767.361169</v>
+        <v>79767.361168999996</v>
       </c>
       <c r="B18" s="1">
-        <v>22.157600</v>
+        <v>22.157599999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1151.620000</v>
+        <v>1151.6199999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-257.404000</v>
+        <v>-257.404</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>79777.839651</v>
+        <v>79777.839651000002</v>
       </c>
       <c r="G18" s="1">
         <v>22.160511</v>
       </c>
       <c r="H18" s="1">
-        <v>1173.650000</v>
+        <v>1173.6500000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-217.177000</v>
+        <v>-217.17699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>79788.341941</v>
+        <v>79788.341941000006</v>
       </c>
       <c r="L18" s="1">
         <v>22.163428</v>
       </c>
       <c r="M18" s="1">
-        <v>1202.130000</v>
+        <v>1202.1300000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.605000</v>
+        <v>-151.60499999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>79798.867048</v>
@@ -4638,527 +5054,527 @@
         <v>22.166352</v>
       </c>
       <c r="R18" s="1">
-        <v>1210.380000</v>
+        <v>1210.3800000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.681000</v>
+        <v>-129.68100000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>79809.348042</v>
+        <v>79809.348041999998</v>
       </c>
       <c r="V18" s="1">
-        <v>22.169263</v>
+        <v>22.169263000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1217.860000</v>
+        <v>1217.8599999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.732000</v>
+        <v>-108.732</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>79819.883391</v>
+        <v>79819.883390999996</v>
       </c>
       <c r="AA18" s="1">
-        <v>22.172190</v>
+        <v>22.172190000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1225.800000</v>
+        <v>1225.8</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.543000</v>
+        <v>-91.543000000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>79830.425501</v>
+        <v>79830.425501000005</v>
       </c>
       <c r="AF18" s="1">
-        <v>22.175118</v>
+        <v>22.175118000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1230.620000</v>
+        <v>1230.6199999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.925100</v>
+        <v>-86.9251</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>79840.959041</v>
+        <v>79840.959040999995</v>
       </c>
       <c r="AK18" s="1">
         <v>22.178044</v>
       </c>
       <c r="AL18" s="1">
-        <v>1237.880000</v>
+        <v>1237.8800000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.177100</v>
+        <v>-90.177099999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>79851.784754</v>
+        <v>79851.784753999993</v>
       </c>
       <c r="AP18" s="1">
         <v>22.181051</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1245.950000</v>
+        <v>1245.95</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.980000</v>
+        <v>-101.98</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>79862.898083</v>
+        <v>79862.898082999993</v>
       </c>
       <c r="AU18" s="1">
-        <v>22.184138</v>
+        <v>22.184138000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.231000</v>
+        <v>-121.23099999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>79874.039749</v>
+        <v>79874.039749000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>22.187233</v>
+        <v>22.187232999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1264.520000</v>
+        <v>1264.52</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.687000</v>
+        <v>-138.68700000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>79885.027096</v>
+        <v>79885.027096000005</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.190285</v>
+        <v>22.190284999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1304.900000</v>
+        <v>1304.9000000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.517000</v>
+        <v>-220.517</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>79896.267959</v>
+        <v>79896.267959000004</v>
       </c>
       <c r="BJ18" s="1">
-        <v>22.193408</v>
+        <v>22.193408000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1374.920000</v>
+        <v>1374.92</v>
       </c>
       <c r="BL18" s="1">
-        <v>-356.694000</v>
+        <v>-356.69400000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>79907.035080</v>
+        <v>79907.035080000001</v>
       </c>
       <c r="BO18" s="1">
         <v>22.196399</v>
       </c>
       <c r="BP18" s="1">
-        <v>1490.010000</v>
+        <v>1490.01</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-577.906000</v>
+        <v>-577.90599999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>79918.465882</v>
+        <v>79918.465882000004</v>
       </c>
       <c r="BT18" s="1">
-        <v>22.199574</v>
+        <v>22.199573999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1622.670000</v>
+        <v>1622.67</v>
       </c>
       <c r="BV18" s="1">
-        <v>-826.633000</v>
+        <v>-826.63300000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>79929.357035</v>
+        <v>79929.357034999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>22.202599</v>
+        <v>22.202598999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1775.570000</v>
+        <v>1775.57</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1097.100000</v>
+        <v>-1097.0999999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>79942.097802</v>
+        <v>79942.097802000004</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.206138</v>
+        <v>22.206137999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2192.400000</v>
+        <v>2192.4</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1751.130000</v>
+        <v>-1751.13</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>79767.704713</v>
+        <v>79767.704712999999</v>
       </c>
       <c r="B19" s="1">
-        <v>22.157696</v>
+        <v>22.157696000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1151.500000</v>
+        <v>1151.5</v>
       </c>
       <c r="D19" s="1">
-        <v>-257.373000</v>
+        <v>-257.37299999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>79778.184866</v>
+        <v>79778.184865999996</v>
       </c>
       <c r="G19" s="1">
-        <v>22.160607</v>
+        <v>22.160606999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1173.280000</v>
+        <v>1173.28</v>
       </c>
       <c r="I19" s="1">
-        <v>-217.252000</v>
+        <v>-217.25200000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>79788.997158</v>
+        <v>79788.997157999998</v>
       </c>
       <c r="L19" s="1">
-        <v>22.163610</v>
+        <v>22.163609999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1201.850000</v>
+        <v>1201.8499999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.822000</v>
+        <v>-151.822</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>79799.535655</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.166538</v>
+        <v>22.166537999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1210.270000</v>
+        <v>1210.27</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.646000</v>
+        <v>-129.64599999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>79809.723017</v>
+        <v>79809.723016999997</v>
       </c>
       <c r="V19" s="1">
-        <v>22.169368</v>
+        <v>22.169367999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1217.880000</v>
+        <v>1217.8800000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.647000</v>
+        <v>-108.64700000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>79820.273418</v>
+        <v>79820.273417999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>22.172298</v>
+        <v>22.172298000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1225.900000</v>
+        <v>1225.9000000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.560100</v>
+        <v>-91.560100000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>79830.768739</v>
+        <v>79830.768739000006</v>
       </c>
       <c r="AF19" s="1">
         <v>22.175214</v>
       </c>
       <c r="AG19" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.942000</v>
+        <v>-86.941999999999993</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>79841.309247</v>
+        <v>79841.309246999997</v>
       </c>
       <c r="AK19" s="1">
         <v>22.178141</v>
       </c>
       <c r="AL19" s="1">
-        <v>1237.890000</v>
+        <v>1237.8900000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.185400</v>
+        <v>-90.185400000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>79852.142370</v>
+        <v>79852.142370000001</v>
       </c>
       <c r="AP19" s="1">
         <v>22.181151</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.017000</v>
+        <v>-102.017</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>79863.321666</v>
+        <v>79863.321666000003</v>
       </c>
       <c r="AU19" s="1">
-        <v>22.184256</v>
+        <v>22.184256000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1256.020000</v>
+        <v>1256.02</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.235000</v>
+        <v>-121.235</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>79874.332355</v>
+        <v>79874.332355000006</v>
       </c>
       <c r="AZ19" s="1">
-        <v>22.187315</v>
+        <v>22.187315000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1264.500000</v>
+        <v>1264.5</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.660000</v>
+        <v>-138.66</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>79885.317750</v>
+        <v>79885.317750000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.190366</v>
+        <v>22.190366000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1304.900000</v>
+        <v>1304.9000000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.493000</v>
+        <v>-220.49299999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>79896.644887</v>
+        <v>79896.644887000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.193512</v>
+        <v>22.193511999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1374.910000</v>
+        <v>1374.91</v>
       </c>
       <c r="BL19" s="1">
-        <v>-356.718000</v>
+        <v>-356.71800000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>79907.459022</v>
+        <v>79907.459021999995</v>
       </c>
       <c r="BO19" s="1">
-        <v>22.196516</v>
+        <v>22.196515999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1490.080000</v>
+        <v>1490.08</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-577.915000</v>
+        <v>-577.91499999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>79918.878588</v>
+        <v>79918.878588000007</v>
       </c>
       <c r="BT19" s="1">
-        <v>22.199688</v>
+        <v>22.199687999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1622.690000</v>
+        <v>1622.69</v>
       </c>
       <c r="BV19" s="1">
-        <v>-826.591000</v>
+        <v>-826.59100000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>79929.781152</v>
+        <v>79929.781151999996</v>
       </c>
       <c r="BY19" s="1">
         <v>22.202717</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1775.580000</v>
+        <v>1775.58</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1097.090000</v>
+        <v>-1097.0899999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>79942.540698</v>
+        <v>79942.540697999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>22.206261</v>
+        <v>22.206261000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2192.610000</v>
+        <v>2192.61</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1751.040000</v>
+        <v>-1751.04</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>79768.048667</v>
+        <v>79768.048666999995</v>
       </c>
       <c r="B20" s="1">
         <v>22.157791</v>
       </c>
       <c r="C20" s="1">
-        <v>1151.640000</v>
+        <v>1151.6400000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-257.504000</v>
+        <v>-257.50400000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>79778.836113</v>
+        <v>79778.836112999998</v>
       </c>
       <c r="G20" s="1">
         <v>22.160788</v>
       </c>
       <c r="H20" s="1">
-        <v>1173.030000</v>
+        <v>1173.03</v>
       </c>
       <c r="I20" s="1">
-        <v>-216.641000</v>
+        <v>-216.64099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>79789.376100</v>
+        <v>79789.376099999994</v>
       </c>
       <c r="L20" s="1">
-        <v>22.163716</v>
+        <v>22.163716000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1202.010000</v>
+        <v>1202.01</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.864000</v>
+        <v>-151.864</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>79799.913615</v>
+        <v>79799.913614999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>22.166643</v>
+        <v>22.166643000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1210.250000</v>
+        <v>1210.25</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.640000</v>
+        <v>-129.63999999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>79810.065229</v>
@@ -5167,557 +5583,557 @@
         <v>22.169463</v>
       </c>
       <c r="W20" s="1">
-        <v>1218.070000</v>
+        <v>1218.07</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.769000</v>
+        <v>-108.76900000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>79820.624555</v>
+        <v>79820.624555000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>22.172396</v>
+        <v>22.172395999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1225.840000</v>
+        <v>1225.8399999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.543200</v>
+        <v>-91.543199999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>79831.116963</v>
+        <v>79831.116962999993</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.175310</v>
+        <v>22.17531</v>
       </c>
       <c r="AG20" s="1">
-        <v>1230.620000</v>
+        <v>1230.6199999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.959800</v>
+        <v>-86.959800000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>79841.740240</v>
+        <v>79841.740239999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>22.178261</v>
+        <v>22.178260999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1237.890000</v>
+        <v>1237.8900000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.188800</v>
+        <v>-90.188800000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>79852.574848</v>
+        <v>79852.574848000004</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.181271</v>
+        <v>22.181270999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1245.960000</v>
+        <v>1245.96</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.986000</v>
+        <v>-101.986</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>79863.624722</v>
+        <v>79863.624721999993</v>
       </c>
       <c r="AU20" s="1">
-        <v>22.184340</v>
+        <v>22.184339999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.219000</v>
+        <v>-121.21899999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>79874.692981</v>
       </c>
       <c r="AZ20" s="1">
-        <v>22.187415</v>
+        <v>22.187415000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1264.500000</v>
+        <v>1264.5</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.677000</v>
+        <v>-138.67699999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>79885.680326</v>
+        <v>79885.680326000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>22.190467</v>
+        <v>22.190467000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1304.850000</v>
+        <v>1304.8499999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.516000</v>
+        <v>-220.51599999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>79897.020358</v>
+        <v>79897.020357999994</v>
       </c>
       <c r="BJ20" s="1">
         <v>22.193617</v>
       </c>
       <c r="BK20" s="1">
-        <v>1374.940000</v>
+        <v>1374.94</v>
       </c>
       <c r="BL20" s="1">
-        <v>-356.683000</v>
+        <v>-356.68299999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>79908.272102</v>
+        <v>79908.272102000003</v>
       </c>
       <c r="BO20" s="1">
         <v>22.196742</v>
       </c>
       <c r="BP20" s="1">
-        <v>1490.030000</v>
+        <v>1490.03</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-577.952000</v>
+        <v>-577.952</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>79919.305112</v>
+        <v>79919.305112000002</v>
       </c>
       <c r="BT20" s="1">
         <v>22.199807</v>
       </c>
       <c r="BU20" s="1">
-        <v>1622.680000</v>
+        <v>1622.68</v>
       </c>
       <c r="BV20" s="1">
-        <v>-826.631000</v>
+        <v>-826.63099999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>79930.221066</v>
+        <v>79930.221065999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>22.202839</v>
+        <v>22.202839000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1775.520000</v>
+        <v>1775.52</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1097.240000</v>
+        <v>-1097.24</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>79943.061033</v>
+        <v>79943.061033000005</v>
       </c>
       <c r="CD20" s="1">
-        <v>22.206406</v>
+        <v>22.206406000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2194.190000</v>
+        <v>2194.19</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1749.790000</v>
+        <v>-1749.79</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>79768.702879</v>
+        <v>79768.702879000004</v>
       </c>
       <c r="B21" s="1">
-        <v>22.157973</v>
+        <v>22.157972999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1151.670000</v>
+        <v>1151.67</v>
       </c>
       <c r="D21" s="1">
-        <v>-257.644000</v>
+        <v>-257.64400000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>79779.219521</v>
+        <v>79779.219521000006</v>
       </c>
       <c r="G21" s="1">
-        <v>22.160894</v>
+        <v>22.160893999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1173.320000</v>
+        <v>1173.32</v>
       </c>
       <c r="I21" s="1">
-        <v>-217.027000</v>
+        <v>-217.02699999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>79789.721811</v>
+        <v>79789.721810999996</v>
       </c>
       <c r="L21" s="1">
         <v>22.163812</v>
       </c>
       <c r="M21" s="1">
-        <v>1201.910000</v>
+        <v>1201.9100000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.653000</v>
+        <v>-151.65299999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>79800.258326</v>
+        <v>79800.258325999996</v>
       </c>
       <c r="Q21" s="1">
-        <v>22.166738</v>
+        <v>22.166737999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1210.310000</v>
+        <v>1210.31</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.614000</v>
+        <v>-129.614</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>79810.414904</v>
+        <v>79810.414904000005</v>
       </c>
       <c r="V21" s="1">
-        <v>22.169560</v>
+        <v>22.169560000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1218.010000</v>
+        <v>1218.01</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.685000</v>
+        <v>-108.685</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>79820.975722</v>
+        <v>79820.975722000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>22.172493</v>
+        <v>22.172492999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1225.720000</v>
+        <v>1225.72</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.560600</v>
+        <v>-91.560599999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>79831.539516</v>
+        <v>79831.539516000004</v>
       </c>
       <c r="AF21" s="1">
         <v>22.175428</v>
       </c>
       <c r="AG21" s="1">
-        <v>1230.670000</v>
+        <v>1230.67</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.948700</v>
+        <v>-86.948700000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>79842.006094</v>
+        <v>79842.006093999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.178335</v>
+        <v>22.178335000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1237.890000</v>
+        <v>1237.8900000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.171300</v>
+        <v>-90.171300000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>79852.864511</v>
+        <v>79852.864511000007</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.181351</v>
+        <v>22.181350999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.995000</v>
+        <v>-101.995</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>79863.977378</v>
+        <v>79863.977377999996</v>
       </c>
       <c r="AU21" s="1">
         <v>22.184438</v>
       </c>
       <c r="AV21" s="1">
-        <v>1256.040000</v>
+        <v>1256.04</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.221000</v>
+        <v>-121.221</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>79875.051058</v>
+        <v>79875.051057999997</v>
       </c>
       <c r="AZ21" s="1">
         <v>22.187514</v>
       </c>
       <c r="BA21" s="1">
-        <v>1264.500000</v>
+        <v>1264.5</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.688000</v>
+        <v>-138.68799999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>79886.040949</v>
+        <v>79886.040949000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>22.190567</v>
+        <v>22.190567000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1304.860000</v>
+        <v>1304.8599999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.507000</v>
+        <v>-220.50700000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>79897.769844</v>
+        <v>79897.769843999995</v>
       </c>
       <c r="BJ21" s="1">
         <v>22.193825</v>
       </c>
       <c r="BK21" s="1">
-        <v>1374.900000</v>
+        <v>1374.9</v>
       </c>
       <c r="BL21" s="1">
-        <v>-356.665000</v>
+        <v>-356.66500000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>79908.692223</v>
+        <v>79908.692223000005</v>
       </c>
       <c r="BO21" s="1">
         <v>22.196859</v>
       </c>
       <c r="BP21" s="1">
-        <v>1490.020000</v>
+        <v>1490.02</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-577.902000</v>
+        <v>-577.90200000000004</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>79919.736631</v>
+        <v>79919.736631000007</v>
       </c>
       <c r="BT21" s="1">
-        <v>22.199927</v>
+        <v>22.199926999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1622.630000</v>
+        <v>1622.63</v>
       </c>
       <c r="BV21" s="1">
-        <v>-826.489000</v>
+        <v>-826.48900000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>79930.643167</v>
+        <v>79930.643167000002</v>
       </c>
       <c r="BY21" s="1">
         <v>22.202956</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1775.560000</v>
+        <v>1775.56</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1097.200000</v>
+        <v>-1097.2</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>79943.894807</v>
+        <v>79943.894807000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.206637</v>
+        <v>22.206637000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2192.630000</v>
+        <v>2192.63</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1748.410000</v>
+        <v>-1748.41</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>79769.068929</v>
+        <v>79769.068929000001</v>
       </c>
       <c r="B22" s="1">
         <v>22.158075</v>
       </c>
       <c r="C22" s="1">
-        <v>1151.680000</v>
+        <v>1151.68</v>
       </c>
       <c r="D22" s="1">
-        <v>-257.768000</v>
+        <v>-257.76799999999997</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>79779.564737</v>
+        <v>79779.564736999993</v>
       </c>
       <c r="G22" s="1">
-        <v>22.160990</v>
+        <v>22.160990000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>1173.240000</v>
+        <v>1173.24</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.371000</v>
+        <v>-217.37100000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>79790.056611</v>
+        <v>79790.056611000007</v>
       </c>
       <c r="L22" s="1">
         <v>22.163905</v>
       </c>
       <c r="M22" s="1">
-        <v>1202.070000</v>
+        <v>1202.07</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.560000</v>
+        <v>-151.56</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>79800.610485</v>
+        <v>79800.610484999997</v>
       </c>
       <c r="Q22" s="1">
         <v>22.166836</v>
       </c>
       <c r="R22" s="1">
-        <v>1210.370000</v>
+        <v>1210.3699999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.720000</v>
+        <v>-129.72</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>79810.846920</v>
+        <v>79810.846919999996</v>
       </c>
       <c r="V22" s="1">
-        <v>22.169680</v>
+        <v>22.16968</v>
       </c>
       <c r="W22" s="1">
-        <v>1217.890000</v>
+        <v>1217.8900000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.757000</v>
+        <v>-108.75700000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>79821.397322</v>
+        <v>79821.397322000004</v>
       </c>
       <c r="AA22" s="1">
-        <v>22.172610</v>
+        <v>22.172609999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1225.870000</v>
+        <v>1225.8699999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.468200</v>
+        <v>-91.468199999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>79831.819756</v>
+        <v>79831.819755999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>22.175505</v>
+        <v>22.175505000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.921200</v>
+        <v>-86.921199999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>79842.352799</v>
@@ -5726,1178 +6142,1179 @@
         <v>22.178431</v>
       </c>
       <c r="AL22" s="1">
-        <v>1237.890000</v>
+        <v>1237.8900000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.215800</v>
+        <v>-90.215800000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>79853.225632</v>
+        <v>79853.225632000001</v>
       </c>
       <c r="AP22" s="1">
         <v>22.181452</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1245.950000</v>
+        <v>1245.95</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.016000</v>
+        <v>-102.01600000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>79864.352385</v>
+        <v>79864.352385000006</v>
       </c>
       <c r="AU22" s="1">
         <v>22.184542</v>
       </c>
       <c r="AV22" s="1">
-        <v>1256.020000</v>
+        <v>1256.02</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.203000</v>
+        <v>-121.203</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>79875.769268</v>
+        <v>79875.769268000004</v>
       </c>
       <c r="AZ22" s="1">
         <v>22.187714</v>
       </c>
       <c r="BA22" s="1">
-        <v>1264.520000</v>
+        <v>1264.52</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.660000</v>
+        <v>-138.66</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>79886.762596</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.190767</v>
+        <v>22.190767000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1304.880000</v>
+        <v>1304.8800000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.517000</v>
+        <v>-220.517</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>79898.144788</v>
+        <v>79898.144788000005</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.193929</v>
+        <v>22.193929000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1374.940000</v>
+        <v>1374.94</v>
       </c>
       <c r="BL22" s="1">
-        <v>-356.683000</v>
+        <v>-356.68299999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>79909.090502</v>
+        <v>79909.090502000006</v>
       </c>
       <c r="BO22" s="1">
-        <v>22.196970</v>
+        <v>22.19697</v>
       </c>
       <c r="BP22" s="1">
-        <v>1489.980000</v>
+        <v>1489.98</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-577.935000</v>
+        <v>-577.93499999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>79920.147815</v>
+        <v>79920.147815000004</v>
       </c>
       <c r="BT22" s="1">
-        <v>22.200041</v>
+        <v>22.200040999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1622.650000</v>
+        <v>1622.65</v>
       </c>
       <c r="BV22" s="1">
-        <v>-826.515000</v>
+        <v>-826.51499999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>79931.386696</v>
+        <v>79931.386696000001</v>
       </c>
       <c r="BY22" s="1">
         <v>22.203163</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1775.570000</v>
+        <v>1775.57</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1097.130000</v>
+        <v>-1097.1300000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>79944.097143</v>
+        <v>79944.097143000006</v>
       </c>
       <c r="CD22" s="1">
-        <v>22.206694</v>
+        <v>22.206693999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2191.480000</v>
+        <v>2191.48</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1750.050000</v>
+        <v>-1750.05</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>79769.413615</v>
+        <v>79769.413614999998</v>
       </c>
       <c r="B23" s="1">
-        <v>22.158170</v>
+        <v>22.158169999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>1151.500000</v>
+        <v>1151.5</v>
       </c>
       <c r="D23" s="1">
-        <v>-257.442000</v>
+        <v>-257.44200000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>79779.909989</v>
+        <v>79779.909989000007</v>
       </c>
       <c r="G23" s="1">
-        <v>22.161086</v>
+        <v>22.161086000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1173.670000</v>
+        <v>1173.67</v>
       </c>
       <c r="I23" s="1">
-        <v>-216.765000</v>
+        <v>-216.76499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>79790.488163</v>
+        <v>79790.488163000002</v>
       </c>
       <c r="L23" s="1">
-        <v>22.164024</v>
+        <v>22.164024000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1202.080000</v>
+        <v>1202.08</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.496000</v>
+        <v>-151.49600000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>79801.034100</v>
+        <v>79801.034100000004</v>
       </c>
       <c r="Q23" s="1">
         <v>22.166954</v>
       </c>
       <c r="R23" s="1">
-        <v>1210.340000</v>
+        <v>1210.3399999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.675000</v>
+        <v>-129.67500000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>79811.117468</v>
+        <v>79811.117467999997</v>
       </c>
       <c r="V23" s="1">
-        <v>22.169755</v>
+        <v>22.169754999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1217.700000</v>
+        <v>1217.7</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.693000</v>
+        <v>-108.693</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>79821.716750</v>
+        <v>79821.716750000007</v>
       </c>
       <c r="AA23" s="1">
-        <v>22.172699</v>
+        <v>22.172699000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1225.890000</v>
+        <v>1225.8900000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.540500</v>
+        <v>-91.540499999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>79832.163981</v>
+        <v>79832.163981000005</v>
       </c>
       <c r="AF23" s="1">
         <v>22.175601</v>
       </c>
       <c r="AG23" s="1">
-        <v>1230.650000</v>
+        <v>1230.6500000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.958100</v>
+        <v>-86.958100000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>79842.703967</v>
+        <v>79842.703966999994</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.178529</v>
+        <v>22.178529000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1237.880000</v>
+        <v>1237.8800000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.193000</v>
+        <v>-90.192999999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>79853.585200</v>
+        <v>79853.585200000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.181551</v>
+        <v>22.181550999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1245.960000</v>
+        <v>1245.96</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.008000</v>
+        <v>-102.008</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>79865.082464</v>
+        <v>79865.082464000006</v>
       </c>
       <c r="AU23" s="1">
-        <v>22.184745</v>
+        <v>22.184744999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1255.990000</v>
+        <v>1255.99</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.223000</v>
+        <v>-121.223</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>79876.127379</v>
+        <v>79876.127378999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>22.187813</v>
+        <v>22.187812999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1264.530000</v>
+        <v>1264.53</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.655000</v>
+        <v>-138.655</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>79887.126659</v>
+        <v>79887.126659000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>22.190869</v>
+        <v>22.190868999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1304.860000</v>
+        <v>1304.8599999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.511000</v>
+        <v>-220.511</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>79898.518773</v>
+        <v>79898.518773000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.194033</v>
+        <v>22.194033000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1374.900000</v>
+        <v>1374.9</v>
       </c>
       <c r="BL23" s="1">
-        <v>-356.683000</v>
+        <v>-356.68299999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>79909.831060</v>
+        <v>79909.831059999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.197175</v>
+        <v>22.197175000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1490.050000</v>
+        <v>1490.05</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-577.914000</v>
+        <v>-577.91399999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>79920.890326</v>
+        <v>79920.890325999993</v>
       </c>
       <c r="BT23" s="1">
-        <v>22.200247</v>
+        <v>22.200247000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1622.710000</v>
+        <v>1622.71</v>
       </c>
       <c r="BV23" s="1">
-        <v>-826.600000</v>
+        <v>-826.6</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>79931.545384</v>
+        <v>79931.545383999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>22.203207</v>
+        <v>22.203206999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1775.430000</v>
+        <v>1775.43</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1097.050000</v>
+        <v>-1097.05</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>79944.616455</v>
+        <v>79944.616454999996</v>
       </c>
       <c r="CD23" s="1">
-        <v>22.206838</v>
+        <v>22.206838000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>2191.560000</v>
+        <v>2191.56</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1750.120000</v>
+        <v>-1750.12</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>79769.758334</v>
+        <v>79769.758333999998</v>
       </c>
       <c r="B24" s="1">
-        <v>22.158266</v>
+        <v>22.158266000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1151.610000</v>
+        <v>1151.6099999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-257.853000</v>
+        <v>-257.85300000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>79780.334560</v>
+        <v>79780.334560000003</v>
       </c>
       <c r="G24" s="1">
-        <v>22.161204</v>
+        <v>22.161204000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1173.760000</v>
+        <v>1173.76</v>
       </c>
       <c r="I24" s="1">
-        <v>-217.445000</v>
+        <v>-217.44499999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>79790.756498</v>
+        <v>79790.756498000002</v>
       </c>
       <c r="L24" s="1">
         <v>22.164099</v>
       </c>
       <c r="M24" s="1">
-        <v>1202.100000</v>
+        <v>1202.0999999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.835000</v>
+        <v>-151.83500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>79801.311862</v>
+        <v>79801.311862000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.167031</v>
+        <v>22.167031000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1210.290000</v>
+        <v>1210.29</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.749000</v>
+        <v>-129.749</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>79811.459479</v>
+        <v>79811.459478999997</v>
       </c>
       <c r="V24" s="1">
-        <v>22.169850</v>
+        <v>22.16985</v>
       </c>
       <c r="W24" s="1">
-        <v>1217.830000</v>
+        <v>1217.83</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.766000</v>
+        <v>-108.76600000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>79822.041662</v>
+        <v>79822.041662000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>22.172789</v>
+        <v>22.172789000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>1225.860000</v>
+        <v>1225.8599999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.539100</v>
+        <v>-91.539100000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>79832.506716</v>
+        <v>79832.506716000004</v>
       </c>
       <c r="AF24" s="1">
-        <v>22.175696</v>
+        <v>22.175695999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.943300</v>
+        <v>-86.943299999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>79843.400349</v>
+        <v>79843.400349000003</v>
       </c>
       <c r="AK24" s="1">
         <v>22.178722</v>
       </c>
       <c r="AL24" s="1">
-        <v>1237.870000</v>
+        <v>1237.8699999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.181000</v>
+        <v>-90.180999999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>79854.313822</v>
+        <v>79854.313821999996</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.181754</v>
+        <v>22.181754000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1245.960000</v>
+        <v>1245.96</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.988000</v>
+        <v>-101.988</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>79865.473343</v>
+        <v>79865.473343000005</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.184854</v>
+        <v>22.184854000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1256.010000</v>
+        <v>1256.01</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.218000</v>
+        <v>-121.218</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>79876.485986</v>
       </c>
       <c r="AZ24" s="1">
-        <v>22.187913</v>
+        <v>22.187913000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1264.520000</v>
+        <v>1264.52</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.676000</v>
+        <v>-138.67599999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>79887.484770</v>
+        <v>79887.484769999995</v>
       </c>
       <c r="BE24" s="1">
-        <v>22.190968</v>
+        <v>22.190968000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1304.840000</v>
+        <v>1304.8399999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.524000</v>
+        <v>-220.524</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>79899.211186</v>
       </c>
       <c r="BJ24" s="1">
-        <v>22.194225</v>
+        <v>22.194224999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1374.910000</v>
+        <v>1374.91</v>
       </c>
       <c r="BL24" s="1">
-        <v>-356.669000</v>
+        <v>-356.66899999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>79910.331491</v>
+        <v>79910.331491000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>22.197314</v>
+        <v>22.197313999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1490.020000</v>
+        <v>1490.02</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-577.944000</v>
+        <v>-577.94399999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>79921.008902</v>
+        <v>79921.008902000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>22.200280</v>
+        <v>22.200279999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1622.650000</v>
+        <v>1622.65</v>
       </c>
       <c r="BV24" s="1">
-        <v>-826.556000</v>
+        <v>-826.55600000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>79931.971447</v>
+        <v>79931.971447000004</v>
       </c>
       <c r="BY24" s="1">
         <v>22.203325</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1775.690000</v>
+        <v>1775.69</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1097.130000</v>
+        <v>-1097.1300000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>79945.163077</v>
+        <v>79945.163077000005</v>
       </c>
       <c r="CD24" s="1">
-        <v>22.206990</v>
+        <v>22.206990000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2191.580000</v>
+        <v>2191.58</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1749.200000</v>
+        <v>-1749.2</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>79770.201757</v>
+        <v>79770.201757000003</v>
       </c>
       <c r="B25" s="1">
         <v>22.158389</v>
       </c>
       <c r="C25" s="1">
-        <v>1151.690000</v>
+        <v>1151.69</v>
       </c>
       <c r="D25" s="1">
-        <v>-257.678000</v>
+        <v>-257.678</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>79780.607328</v>
+        <v>79780.607327999998</v>
       </c>
       <c r="G25" s="1">
-        <v>22.161280</v>
+        <v>22.161280000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1173.160000</v>
+        <v>1173.1600000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.244000</v>
+        <v>-216.244</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>79791.104658</v>
+        <v>79791.104657999997</v>
       </c>
       <c r="L25" s="1">
         <v>22.164196</v>
       </c>
       <c r="M25" s="1">
-        <v>1202.150000</v>
+        <v>1202.1500000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.580000</v>
+        <v>-151.58000000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>79801.659525</v>
+        <v>79801.659524999995</v>
       </c>
       <c r="Q25" s="1">
-        <v>22.167128</v>
+        <v>22.167128000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1210.300000</v>
+        <v>1210.3</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.688000</v>
+        <v>-129.68799999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>79811.809654</v>
+        <v>79811.809653999997</v>
       </c>
       <c r="V25" s="1">
-        <v>22.169947</v>
+        <v>22.169947000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1217.940000</v>
+        <v>1217.94</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.653000</v>
+        <v>-108.65300000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>79822.742008</v>
+        <v>79822.742008000001</v>
       </c>
       <c r="AA25" s="1">
         <v>22.172984</v>
       </c>
       <c r="AB25" s="1">
-        <v>1225.800000</v>
+        <v>1225.8</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.468300</v>
+        <v>-91.468299999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>79833.194703</v>
+        <v>79833.194703000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>22.175887</v>
+        <v>22.175886999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1230.590000</v>
+        <v>1230.5899999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-87.003700</v>
+        <v>-87.003699999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>79843.751019</v>
+        <v>79843.751019000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>22.178820</v>
+        <v>22.178820000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1237.900000</v>
+        <v>1237.9000000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.195300</v>
+        <v>-90.195300000000003</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>79854.680366</v>
+        <v>79854.680366000001</v>
       </c>
       <c r="AP25" s="1">
         <v>22.181856</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1245.970000</v>
+        <v>1245.97</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.006000</v>
+        <v>-102.006</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>79865.835888</v>
+        <v>79865.835888000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>22.184954</v>
+        <v>22.184954000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1256.040000</v>
+        <v>1256.04</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.227000</v>
+        <v>-121.227</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>79877.148641</v>
+        <v>79877.148641000007</v>
       </c>
       <c r="AZ25" s="1">
-        <v>22.188097</v>
+        <v>22.188096999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1264.540000</v>
+        <v>1264.54</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.702000</v>
+        <v>-138.702</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>79888.158834</v>
+        <v>79888.158834000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>22.191155</v>
+        <v>22.191154999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1304.890000</v>
+        <v>1304.8900000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.510000</v>
+        <v>-220.51</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>79899.646192</v>
       </c>
       <c r="BJ25" s="1">
-        <v>22.194346</v>
+        <v>22.194345999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1374.920000</v>
+        <v>1374.92</v>
       </c>
       <c r="BL25" s="1">
-        <v>-356.659000</v>
+        <v>-356.65899999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>79910.747172</v>
+        <v>79910.747172000003</v>
       </c>
       <c r="BO25" s="1">
-        <v>22.197430</v>
+        <v>22.197430000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1490.010000</v>
+        <v>1490.01</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-577.947000</v>
+        <v>-577.947</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>79921.445351</v>
+        <v>79921.445351000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>22.200401</v>
+        <v>22.200400999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1622.740000</v>
+        <v>1622.74</v>
       </c>
       <c r="BV25" s="1">
-        <v>-826.563000</v>
+        <v>-826.56299999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>79932.388583</v>
+        <v>79932.388583000007</v>
       </c>
       <c r="BY25" s="1">
-        <v>22.203441</v>
+        <v>22.203441000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1775.570000</v>
+        <v>1775.57</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1097.160000</v>
+        <v>-1097.1600000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>79945.694299</v>
+        <v>79945.694298999995</v>
       </c>
       <c r="CD25" s="1">
-        <v>22.207137</v>
+        <v>22.207136999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2192.160000</v>
+        <v>2192.16</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1751.140000</v>
+        <v>-1751.14</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>79770.457235</v>
+        <v>79770.457234999994</v>
       </c>
       <c r="B26" s="1">
-        <v>22.158460</v>
+        <v>22.158460000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1151.540000</v>
+        <v>1151.54</v>
       </c>
       <c r="D26" s="1">
-        <v>-257.755000</v>
+        <v>-257.755</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>79780.952543</v>
+        <v>79780.952543000007</v>
       </c>
       <c r="G26" s="1">
-        <v>22.161376</v>
+        <v>22.161376000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1173.140000</v>
+        <v>1173.1400000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-216.512000</v>
+        <v>-216.512</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>79791.450874</v>
+        <v>79791.450874000002</v>
       </c>
       <c r="L26" s="1">
         <v>22.164292</v>
       </c>
       <c r="M26" s="1">
-        <v>1202.290000</v>
+        <v>1202.29</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.804000</v>
+        <v>-151.804</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>79802.006723</v>
+        <v>79802.006722999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>22.167224</v>
+        <v>22.167224000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1210.310000</v>
+        <v>1210.31</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.616000</v>
+        <v>-129.61600000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>79812.502604</v>
+        <v>79812.502603999994</v>
       </c>
       <c r="V26" s="1">
-        <v>22.170140</v>
+        <v>22.17014</v>
       </c>
       <c r="W26" s="1">
-        <v>1218.040000</v>
+        <v>1218.04</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.690000</v>
+        <v>-108.69</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>79823.086201</v>
+        <v>79823.086200999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>22.173080</v>
+        <v>22.173079999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1225.830000</v>
+        <v>1225.83</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.454800</v>
+        <v>-91.454800000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>79833.536905</v>
+        <v>79833.536905000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>22.175982</v>
+        <v>22.175982000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.927100</v>
+        <v>-86.927099999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>79844.099708</v>
+        <v>79844.099707999994</v>
       </c>
       <c r="AK26" s="1">
-        <v>22.178917</v>
+        <v>22.178916999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>1237.910000</v>
+        <v>1237.9100000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.246600</v>
+        <v>-90.246600000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>79855.080648</v>
+        <v>79855.080648000003</v>
       </c>
       <c r="AP26" s="1">
         <v>22.181967</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1245.990000</v>
+        <v>1245.99</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.989000</v>
+        <v>-101.989</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>79866.515902</v>
+        <v>79866.515901999999</v>
       </c>
       <c r="AU26" s="1">
         <v>22.185143</v>
       </c>
       <c r="AV26" s="1">
-        <v>1256.010000</v>
+        <v>1256.01</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.223000</v>
+        <v>-121.223</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>79877.596063</v>
+        <v>79877.596063000005</v>
       </c>
       <c r="AZ26" s="1">
-        <v>22.188221</v>
+        <v>22.188220999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1264.520000</v>
+        <v>1264.52</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.683000</v>
+        <v>-138.68299999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>79888.606225</v>
+        <v>79888.606224999996</v>
       </c>
       <c r="BE26" s="1">
-        <v>22.191280</v>
+        <v>22.191279999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1304.870000</v>
+        <v>1304.8699999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.520000</v>
+        <v>-220.52</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>79900.021181</v>
+        <v>79900.021181000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>22.194450</v>
+        <v>22.19445</v>
       </c>
       <c r="BK26" s="1">
-        <v>1374.920000</v>
+        <v>1374.92</v>
       </c>
       <c r="BL26" s="1">
-        <v>-356.665000</v>
+        <v>-356.66500000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>79911.144963</v>
+        <v>79911.144962999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>22.197540</v>
+        <v>22.19754</v>
       </c>
       <c r="BP26" s="1">
-        <v>1490.050000</v>
+        <v>1490.05</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-577.959000</v>
+        <v>-577.95899999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>79921.859014</v>
+        <v>79921.859014000001</v>
       </c>
       <c r="BT26" s="1">
         <v>22.200516</v>
       </c>
       <c r="BU26" s="1">
-        <v>1622.670000</v>
+        <v>1622.67</v>
       </c>
       <c r="BV26" s="1">
-        <v>-826.532000</v>
+        <v>-826.53200000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>79932.835976</v>
+        <v>79932.835976000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>22.203566</v>
+        <v>22.203565999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1775.550000</v>
+        <v>1775.55</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1097.050000</v>
+        <v>-1097.05</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>79946.215061</v>
+        <v>79946.215060999995</v>
       </c>
       <c r="CD26" s="1">
-        <v>22.207282</v>
+        <v>22.207281999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2193.800000</v>
+        <v>2193.8000000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1749.060000</v>
+        <v>-1749.06</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>